--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Mpa</t>
   </si>
@@ -71,16 +71,78 @@
   <si>
     <t>Work</t>
   </si>
+  <si>
+    <t>2020-12-17-carnot-cycle.md</t>
+  </si>
+  <si>
+    <t>TH (K)</t>
+  </si>
+  <si>
+    <t>TC (K)</t>
+  </si>
+  <si>
+    <t>n (mol)</t>
+  </si>
+  <si>
+    <t>R (J/mol.K)</t>
+  </si>
+  <si>
+    <t>Cp (J/mol.K)</t>
+  </si>
+  <si>
+    <t>CV (J/mol.K)</t>
+  </si>
+  <si>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>p (N/m2)</t>
+  </si>
+  <si>
+    <t>V (m3)</t>
+  </si>
+  <si>
+    <t>T (K)</t>
+  </si>
+  <si>
+    <t>c0</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Rounded</t>
+  </si>
+  <si>
+    <t>1 -&gt; 2</t>
+  </si>
+  <si>
+    <t>2 -&gt; 3</t>
+  </si>
+  <si>
+    <t>3 -&gt; 4</t>
+  </si>
+  <si>
+    <t>4 -&gt; 1</t>
+  </si>
+  <si>
+    <t>ΔV (m3)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
-    <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +150,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,15 +187,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +223,3007 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36134811309236037"/>
+          <c:y val="5.0322309711286088E-2"/>
+          <c:w val="0.59123028704058445"/>
+          <c:h val="0.78522589676290466"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 -&gt; 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$K$4:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8000000000000037E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24800000000000016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.30400000000000021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33600000000000024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.35200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.41600000000000031</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47200000000000036</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.48800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51200000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$L$4:$L$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1249999.9999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>624999.99999999977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>416666.66666666645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312499.99999999988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249999.99999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208333.33333333326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178571.42857142852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156249.99999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 -&gt; 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$K$4:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8000000000000037E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24800000000000016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.30400000000000021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33600000000000024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.35200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.41600000000000031</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47200000000000036</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.48800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51200000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$M$4:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="7" formatCode="0.0000E+00">
+                  <c:v>156249.99999999983</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000E+00">
+                  <c:v>128400.23599085819</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000E+00">
+                  <c:v>107721.7345015941</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000E+00">
+                  <c:v>91900.003742533576</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000E+00">
+                  <c:v>79494.04462175908</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000E+00">
+                  <c:v>69566.115021324134</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000E+00">
+                  <c:v>61483.221024878228</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000E+00">
+                  <c:v>54804.712762899282</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000E+00">
+                  <c:v>49215.666011518435</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000E+00">
+                  <c:v>44485.84066882755</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000E+00">
+                  <c:v>40443.540034087862</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000E+00">
+                  <c:v>36958.471588946566</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000E+00">
+                  <c:v>33930.220207436287</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000E+00">
+                  <c:v>31280.319460103376</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000E+00">
+                  <c:v>28946.687300158934</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000E+00">
+                  <c:v>26879.650093114964</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000E+00">
+                  <c:v>25039.055040059146</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000E+00">
+                  <c:v>23392.141905702902</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000E+00">
+                  <c:v>21911.953168693541</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0000E+00">
+                  <c:v>20576.131687242774</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0000E+00">
+                  <c:v>19366.001096145781</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0000E+00">
+                  <c:v>18265.855087311793</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0000E+00">
+                  <c:v>17262.402810854754</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0000E+00">
+                  <c:v>16344.332218477566</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.0000E+00">
+                  <c:v>15501.963398126927</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0000E+00">
+                  <c:v>14726.971212102029</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.0000E+00">
+                  <c:v>14012.161770231311</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0000E+00">
+                  <c:v>13351.291061994227</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.0000E+00">
+                  <c:v>12738.916855303329</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.0000E+00">
+                  <c:v>12170.277033038526</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.0000E+00">
+                  <c:v>11641.189081713848</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.0000E+00">
+                  <c:v>11147.966610828933</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.0000E+00">
+                  <c:v>10687.349666729342</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.0000E+00">
+                  <c:v>10256.446283113402</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.0000E+00">
+                  <c:v>9852.6832338051136</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.0000E+00">
+                  <c:v>9473.7643601587861</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.0000E+00">
+                  <c:v>9117.6351635487026</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.0000E+00">
+                  <c:v>8782.452603679154</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.0000E+00">
+                  <c:v>8466.559241531053</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.0000E+00">
+                  <c:v>8168.4610234012889</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.0000E+00">
+                  <c:v>7886.8081286117058</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0000E+00">
+                  <c:v>7620.3784048791467</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.0000E+00">
+                  <c:v>7368.0629972807628</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.0000E+00">
+                  <c:v>7128.8538432644818</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.0000E+00">
+                  <c:v>6901.8327603869138</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.0000E+00">
+                  <c:v>6686.1618978659071</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.0000E+00">
+                  <c:v>6481.075359541519</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.0000E+00">
+                  <c:v>6285.8718359692321</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.0000E+00">
+                  <c:v>6099.9081083303126</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.0000E+00">
+                  <c:v>5922.5933075974135</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.0000E+00">
+                  <c:v>5753.3838297083694</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.0000E+00">
+                  <c:v>5591.7788219954818</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.0000E+00">
+                  <c:v>5437.3161682900791</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.0000E+00">
+                  <c:v>5289.568910376468</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.0000E+00">
+                  <c:v>5148.142052133715</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.0000E+00">
+                  <c:v>5012.6697000458371</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.0000E+00">
+                  <c:v>4882.8124999999936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 -&gt; 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$K$4:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8000000000000037E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24800000000000016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.30400000000000021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33600000000000024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.35200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.41600000000000031</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47200000000000036</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.48800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51200000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$N$4:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="7" formatCode="0.0000E+00">
+                  <c:v>39062.499999999985</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000E+00">
+                  <c:v>34722.222222222204</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000E+00">
+                  <c:v>31249.999999999982</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000E+00">
+                  <c:v>28409.090909090894</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000E+00">
+                  <c:v>26041.66666666665</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000E+00">
+                  <c:v>24038.461538461521</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000E+00">
+                  <c:v>22321.428571428554</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000E+00">
+                  <c:v>20833.333333333318</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000E+00">
+                  <c:v>19531.249999999989</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000E+00">
+                  <c:v>18382.352941176458</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000E+00">
+                  <c:v>17361.111111111099</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000E+00">
+                  <c:v>16447.368421052619</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000E+00">
+                  <c:v>15624.999999999989</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000E+00">
+                  <c:v>14880.952380952371</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000E+00">
+                  <c:v>14204.545454545443</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000E+00">
+                  <c:v>13586.956521739119</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000E+00">
+                  <c:v>13020.833333333323</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000E+00">
+                  <c:v>12499.999999999991</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000E+00">
+                  <c:v>12019.23076923076</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0000E+00">
+                  <c:v>11574.074074074064</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0000E+00">
+                  <c:v>11160.714285714277</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0000E+00">
+                  <c:v>10775.862068965509</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0000E+00">
+                  <c:v>10416.666666666659</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0000E+00">
+                  <c:v>10080.645161290315</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.0000E+00">
+                  <c:v>9765.6249999999909</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0000E+00">
+                  <c:v>9469.6969696969609</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.0000E+00">
+                  <c:v>9191.1764705882269</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0000E+00">
+                  <c:v>8928.5714285714203</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.0000E+00">
+                  <c:v>8680.5555555555475</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.0000E+00">
+                  <c:v>8445.9459459459376</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.0000E+00">
+                  <c:v>8223.6842105263077</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.0000E+00">
+                  <c:v>8012.8205128205054</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.0000E+00">
+                  <c:v>7812.4999999999927</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.0000E+00">
+                  <c:v>7621.9512195121879</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.0000E+00">
+                  <c:v>7440.4761904761835</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.0000E+00">
+                  <c:v>7267.44186046511</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.0000E+00">
+                  <c:v>7102.2727272727207</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.0000E+00">
+                  <c:v>6944.444444444438</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.0000E+00">
+                  <c:v>6793.4782608695587</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.0000E+00">
+                  <c:v>6648.9361702127599</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.0000E+00">
+                  <c:v>6510.4166666666606</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0000E+00">
+                  <c:v>6377.5510204081575</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.0000E+00">
+                  <c:v>6249.9999999999945</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.0000E+00">
+                  <c:v>6127.450980392151</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.0000E+00">
+                  <c:v>6009.6153846153793</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.0000E+00">
+                  <c:v>5896.2264150943338</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.0000E+00">
+                  <c:v>5787.037037037032</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.0000E+00">
+                  <c:v>5681.8181818181765</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.0000E+00">
+                  <c:v>5580.3571428571377</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.0000E+00">
+                  <c:v>5482.4561403508724</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.0000E+00">
+                  <c:v>5387.9310344827536</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.0000E+00">
+                  <c:v>5296.6101694915205</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.0000E+00">
+                  <c:v>5208.3333333333285</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.0000E+00">
+                  <c:v>5122.9508196721263</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.0000E+00">
+                  <c:v>5040.3225806451564</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.0000E+00">
+                  <c:v>4960.3174603174557</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.0000E+00">
+                  <c:v>4882.8124999999955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 -&gt; 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$K$4:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8000000000000037E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24800000000000016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.30400000000000021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33600000000000024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.35200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.41600000000000031</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47200000000000036</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.48800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51200000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$O$4:$O$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1249999.9999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393725.32809214748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200312.44032047316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124015.70718501553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85498.797333834809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63094.465028893763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48799.264866642559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39062.499999999956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="42788736"/>
+        <c:axId val="42787200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42788736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t> (m3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42787200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42787200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t> (N/m2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0631787140351533E-2"/>
+              <c:y val="0.417057217847769"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42788736"/>
+        <c:crossesAt val="1.0000000000000002E-4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73873283123296685"/>
+          <c:y val="7.7261242344706924E-2"/>
+          <c:w val="0.19275132110941579"/>
+          <c:h val="0.27214418197725282"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36134811309236048"/>
+          <c:y val="5.0322309711286102E-2"/>
+          <c:w val="0.59123028704058445"/>
+          <c:h val="0.78522589676290466"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 -&gt; 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$K$4:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8000000000000037E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24800000000000016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.30400000000000021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33600000000000024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.35200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.41600000000000031</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47200000000000036</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.48800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51200000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$L$4:$L$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1249999.9999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>624999.99999999977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>416666.66666666645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312499.99999999988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249999.99999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208333.33333333326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178571.42857142852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156249.99999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 -&gt; 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$K$4:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8000000000000037E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24800000000000016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.30400000000000021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33600000000000024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.35200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.41600000000000031</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47200000000000036</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.48800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51200000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$M$4:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="7" formatCode="0.0000E+00">
+                  <c:v>156249.99999999983</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000E+00">
+                  <c:v>128400.23599085819</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000E+00">
+                  <c:v>107721.7345015941</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000E+00">
+                  <c:v>91900.003742533576</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000E+00">
+                  <c:v>79494.04462175908</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000E+00">
+                  <c:v>69566.115021324134</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000E+00">
+                  <c:v>61483.221024878228</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000E+00">
+                  <c:v>54804.712762899282</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000E+00">
+                  <c:v>49215.666011518435</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000E+00">
+                  <c:v>44485.84066882755</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000E+00">
+                  <c:v>40443.540034087862</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000E+00">
+                  <c:v>36958.471588946566</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000E+00">
+                  <c:v>33930.220207436287</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000E+00">
+                  <c:v>31280.319460103376</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000E+00">
+                  <c:v>28946.687300158934</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000E+00">
+                  <c:v>26879.650093114964</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000E+00">
+                  <c:v>25039.055040059146</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000E+00">
+                  <c:v>23392.141905702902</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000E+00">
+                  <c:v>21911.953168693541</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0000E+00">
+                  <c:v>20576.131687242774</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0000E+00">
+                  <c:v>19366.001096145781</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0000E+00">
+                  <c:v>18265.855087311793</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0000E+00">
+                  <c:v>17262.402810854754</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0000E+00">
+                  <c:v>16344.332218477566</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.0000E+00">
+                  <c:v>15501.963398126927</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0000E+00">
+                  <c:v>14726.971212102029</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.0000E+00">
+                  <c:v>14012.161770231311</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0000E+00">
+                  <c:v>13351.291061994227</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.0000E+00">
+                  <c:v>12738.916855303329</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.0000E+00">
+                  <c:v>12170.277033038526</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.0000E+00">
+                  <c:v>11641.189081713848</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.0000E+00">
+                  <c:v>11147.966610828933</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.0000E+00">
+                  <c:v>10687.349666729342</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.0000E+00">
+                  <c:v>10256.446283113402</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.0000E+00">
+                  <c:v>9852.6832338051136</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.0000E+00">
+                  <c:v>9473.7643601587861</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.0000E+00">
+                  <c:v>9117.6351635487026</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.0000E+00">
+                  <c:v>8782.452603679154</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.0000E+00">
+                  <c:v>8466.559241531053</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.0000E+00">
+                  <c:v>8168.4610234012889</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.0000E+00">
+                  <c:v>7886.8081286117058</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0000E+00">
+                  <c:v>7620.3784048791467</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.0000E+00">
+                  <c:v>7368.0629972807628</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.0000E+00">
+                  <c:v>7128.8538432644818</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.0000E+00">
+                  <c:v>6901.8327603869138</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.0000E+00">
+                  <c:v>6686.1618978659071</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.0000E+00">
+                  <c:v>6481.075359541519</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.0000E+00">
+                  <c:v>6285.8718359692321</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.0000E+00">
+                  <c:v>6099.9081083303126</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.0000E+00">
+                  <c:v>5922.5933075974135</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.0000E+00">
+                  <c:v>5753.3838297083694</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.0000E+00">
+                  <c:v>5591.7788219954818</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.0000E+00">
+                  <c:v>5437.3161682900791</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.0000E+00">
+                  <c:v>5289.568910376468</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.0000E+00">
+                  <c:v>5148.142052133715</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.0000E+00">
+                  <c:v>5012.6697000458371</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.0000E+00">
+                  <c:v>4882.8124999999936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 -&gt; 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$K$4:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8000000000000037E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24800000000000016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.30400000000000021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33600000000000024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.35200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.41600000000000031</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47200000000000036</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.48800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51200000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$N$4:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="7" formatCode="0.0000E+00">
+                  <c:v>39062.499999999985</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000E+00">
+                  <c:v>34722.222222222204</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000E+00">
+                  <c:v>31249.999999999982</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000E+00">
+                  <c:v>28409.090909090894</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000E+00">
+                  <c:v>26041.66666666665</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000E+00">
+                  <c:v>24038.461538461521</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000E+00">
+                  <c:v>22321.428571428554</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000E+00">
+                  <c:v>20833.333333333318</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000E+00">
+                  <c:v>19531.249999999989</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000E+00">
+                  <c:v>18382.352941176458</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000E+00">
+                  <c:v>17361.111111111099</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000E+00">
+                  <c:v>16447.368421052619</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000E+00">
+                  <c:v>15624.999999999989</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000E+00">
+                  <c:v>14880.952380952371</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000E+00">
+                  <c:v>14204.545454545443</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000E+00">
+                  <c:v>13586.956521739119</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000E+00">
+                  <c:v>13020.833333333323</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000E+00">
+                  <c:v>12499.999999999991</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000E+00">
+                  <c:v>12019.23076923076</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0000E+00">
+                  <c:v>11574.074074074064</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0000E+00">
+                  <c:v>11160.714285714277</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0000E+00">
+                  <c:v>10775.862068965509</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0000E+00">
+                  <c:v>10416.666666666659</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0000E+00">
+                  <c:v>10080.645161290315</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.0000E+00">
+                  <c:v>9765.6249999999909</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0000E+00">
+                  <c:v>9469.6969696969609</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.0000E+00">
+                  <c:v>9191.1764705882269</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0000E+00">
+                  <c:v>8928.5714285714203</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.0000E+00">
+                  <c:v>8680.5555555555475</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.0000E+00">
+                  <c:v>8445.9459459459376</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.0000E+00">
+                  <c:v>8223.6842105263077</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.0000E+00">
+                  <c:v>8012.8205128205054</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.0000E+00">
+                  <c:v>7812.4999999999927</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.0000E+00">
+                  <c:v>7621.9512195121879</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.0000E+00">
+                  <c:v>7440.4761904761835</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.0000E+00">
+                  <c:v>7267.44186046511</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.0000E+00">
+                  <c:v>7102.2727272727207</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.0000E+00">
+                  <c:v>6944.444444444438</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.0000E+00">
+                  <c:v>6793.4782608695587</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.0000E+00">
+                  <c:v>6648.9361702127599</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.0000E+00">
+                  <c:v>6510.4166666666606</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0000E+00">
+                  <c:v>6377.5510204081575</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.0000E+00">
+                  <c:v>6249.9999999999945</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.0000E+00">
+                  <c:v>6127.450980392151</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.0000E+00">
+                  <c:v>6009.6153846153793</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.0000E+00">
+                  <c:v>5896.2264150943338</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.0000E+00">
+                  <c:v>5787.037037037032</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.0000E+00">
+                  <c:v>5681.8181818181765</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.0000E+00">
+                  <c:v>5580.3571428571377</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.0000E+00">
+                  <c:v>5482.4561403508724</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.0000E+00">
+                  <c:v>5387.9310344827536</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.0000E+00">
+                  <c:v>5296.6101694915205</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.0000E+00">
+                  <c:v>5208.3333333333285</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.0000E+00">
+                  <c:v>5122.9508196721263</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.0000E+00">
+                  <c:v>5040.3225806451564</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.0000E+00">
+                  <c:v>4960.3174603174557</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.0000E+00">
+                  <c:v>4882.8124999999955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 -&gt; 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$K$4:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8000000000000037E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24800000000000016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.30400000000000021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33600000000000024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.35200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.41600000000000031</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47200000000000036</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.48800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51200000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$O$4:$O$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1249999.9999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393725.32809214748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200312.44032047316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124015.70718501553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85498.797333834809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63094.465028893763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48799.264866642559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39062.499999999956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="155365376"/>
+        <c:axId val="155367296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="155365376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t> (m3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155367296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="155367296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t> (N/m2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0631787140351533E-2"/>
+              <c:y val="0.41705721784776911"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155365376"/>
+        <c:crossesAt val="1.0000000000000007E-4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73136634659194233"/>
+          <c:y val="7.2816797900262478E-2"/>
+          <c:w val="0.20762436960727645"/>
+          <c:h val="0.32103307086614175"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,7 +3513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -665,13 +3768,1241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="1.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="12" max="15" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="L2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>8.3140000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1250000</v>
+      </c>
+      <c r="F4" s="5">
+        <f>0.2^3</f>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="G4">
+        <f>B4</f>
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <f>(E4*F4)/($B$6*$B$3*G4)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="I4">
+        <f>($B$6*$B$3*G4)/(F4^(1-$B$9))</f>
+        <v>400</v>
+      </c>
+      <c r="K4" s="6">
+        <f>$F$4</f>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="L4" s="3">
+        <f>($B$6*$B$3*$B$4)/$K4</f>
+        <v>1249999.9999999995</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O10" si="0">$I$7/$K4^$B$9</f>
+        <v>1249999.9999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9">
+        <f>E4/8</f>
+        <v>156250</v>
+      </c>
+      <c r="F5" s="5">
+        <f>0.4^3</f>
+        <v>6.4000000000000015E-2</v>
+      </c>
+      <c r="G5">
+        <f>G4</f>
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <f>(E5*F5)/($B$6*$B$3*G5)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="I5">
+        <f>($B$6*$B$3*G5)/(F5^(1-$B$9))</f>
+        <v>1599.9999999999995</v>
+      </c>
+      <c r="K5" s="6">
+        <f>K4+$B$11</f>
+        <v>1.6000000000000004E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:N11" si="1">($B$6*$B$3*$B$4)/$K5</f>
+        <v>624999.99999999977</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="0"/>
+        <v>393725.32809214748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <f>5/B3</f>
+        <v>0.6013952369497233</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <f>E5/32</f>
+        <v>4882.8125</v>
+      </c>
+      <c r="F6">
+        <f>8*F5</f>
+        <v>0.51200000000000012</v>
+      </c>
+      <c r="G6">
+        <f>B5</f>
+        <v>500</v>
+      </c>
+      <c r="H6">
+        <f>(E6*F6)/($B$6*$B$3*G6)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="I6">
+        <f>($B$6*$B$3*G6)/(F6^(1-$B$9))</f>
+        <v>1599.9999999999998</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:K69" si="2">K5+$B$11</f>
+        <v>2.4000000000000007E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
+        <v>416666.66666666645</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>200312.44032047316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <f>(5/2)*B3</f>
+        <v>20.785</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <f>8*E6</f>
+        <v>39062.5</v>
+      </c>
+      <c r="F7">
+        <f>1*F5</f>
+        <v>6.4000000000000015E-2</v>
+      </c>
+      <c r="G7">
+        <f>G6</f>
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <f>(E7*F7)/($B$6*$B$3*G7)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="I7">
+        <f>($B$6*$B$3*G7)/(F7^(1-$B$9))</f>
+        <v>399.99999999999989</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000008E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>312499.99999999988</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>124015.70718501553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f>(3/2)*B3</f>
+        <v>12.471</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>249999.99999999991</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>85498.797333834809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <f>B7/B8</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000008E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>208333.33333333326</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>63094.465028893763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000008E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>178571.42857142852</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>48799.264866642559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <f>F4</f>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1250000</v>
+      </c>
+      <c r="F11">
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="G11">
+        <v>2000</v>
+      </c>
+      <c r="H11">
+        <f>(E11*F11)/($B$6*$B$3*G11)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="I11">
+        <f>($B$6*$B$3*G11)/(F11^(1-$B$9))</f>
+        <v>400</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>6.4000000000000015E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>156249.99999999994</v>
+      </c>
+      <c r="M11" s="3">
+        <f>$I$5/$K11^$B$9</f>
+        <v>156249.99999999983</v>
+      </c>
+      <c r="N11" s="3">
+        <f>($B$6*$B$3*$B$5)/$K11</f>
+        <v>39062.499999999985</v>
+      </c>
+      <c r="O11" s="3">
+        <f>$I$7/$K11^$B$9</f>
+        <v>39062.499999999956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>156250</v>
+      </c>
+      <c r="F12">
+        <v>6.4000000000000015E-2</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+      <c r="H12">
+        <f>(E12*F12)/($B$6*$B$3*G12)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="I12">
+        <f>($B$6*$B$3*G12)/(F12^(1-$B$9))</f>
+        <v>1599.9999999999995</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>7.2000000000000022E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" ref="M12:M67" si="3">$I$5/$K12^$B$9</f>
+        <v>128400.23599085819</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" ref="N12:N67" si="4">($B$6*$B$3*$B$5)/$K12</f>
+        <v>34722.222222222204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4883</v>
+      </c>
+      <c r="F13">
+        <v>0.51200000000000012</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <f>(E13*F13)/($B$6*$B$3*G13)</f>
+        <v>1.0000384000000004</v>
+      </c>
+      <c r="I13">
+        <f>($B$6*$B$3*G13)/(F13^(1-$B$9))</f>
+        <v>1599.9999999999998</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000029E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="3"/>
+        <v>107721.7345015941</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="4"/>
+        <v>31249.999999999982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>39063</v>
+      </c>
+      <c r="F14">
+        <v>6.4000000000000015E-2</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="H14">
+        <f>(E14*F14)/($B$6*$B$3*G14)</f>
+        <v>1.0000128000000004</v>
+      </c>
+      <c r="I14">
+        <f>($B$6*$B$3*G14)/(F14^(1-$B$9))</f>
+        <v>399.99999999999989</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>8.8000000000000037E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="3"/>
+        <v>91900.003742533576</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="4"/>
+        <v>28409.090909090894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="K15" s="6">
+        <f t="shared" si="2"/>
+        <v>9.6000000000000044E-2</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="3"/>
+        <v>79494.04462175908</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="4"/>
+        <v>26041.66666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.10400000000000005</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="3"/>
+        <v>69566.115021324134</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="4"/>
+        <v>24038.461538461521</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14">
+      <c r="K17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.11200000000000006</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="3"/>
+        <v>61483.221024878228</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="4"/>
+        <v>22321.428571428554</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14">
+      <c r="K18" s="6">
+        <f t="shared" si="2"/>
+        <v>0.12000000000000006</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="3"/>
+        <v>54804.712762899282</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="4"/>
+        <v>20833.333333333318</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14">
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.12800000000000006</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="3"/>
+        <v>49215.666011518435</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="4"/>
+        <v>19531.249999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14">
+      <c r="K20" s="6">
+        <f t="shared" si="2"/>
+        <v>0.13600000000000007</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="3"/>
+        <v>44485.84066882755</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="4"/>
+        <v>18382.352941176458</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14">
+      <c r="K21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.14400000000000007</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="3"/>
+        <v>40443.540034087862</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="4"/>
+        <v>17361.111111111099</v>
+      </c>
+    </row>
+    <row r="22" spans="11:14">
+      <c r="K22" s="6">
+        <f t="shared" si="2"/>
+        <v>0.15200000000000008</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="3"/>
+        <v>36958.471588946566</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="4"/>
+        <v>16447.368421052619</v>
+      </c>
+    </row>
+    <row r="23" spans="11:14">
+      <c r="K23" s="6">
+        <f t="shared" si="2"/>
+        <v>0.16000000000000009</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="3"/>
+        <v>33930.220207436287</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="4"/>
+        <v>15624.999999999989</v>
+      </c>
+    </row>
+    <row r="24" spans="11:14">
+      <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>0.16800000000000009</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="3"/>
+        <v>31280.319460103376</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="4"/>
+        <v>14880.952380952371</v>
+      </c>
+    </row>
+    <row r="25" spans="11:14">
+      <c r="K25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1760000000000001</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="3"/>
+        <v>28946.687300158934</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="4"/>
+        <v>14204.545454545443</v>
+      </c>
+    </row>
+    <row r="26" spans="11:14">
+      <c r="K26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18400000000000011</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="3"/>
+        <v>26879.650093114964</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="4"/>
+        <v>13586.956521739119</v>
+      </c>
+    </row>
+    <row r="27" spans="11:14">
+      <c r="K27" s="6">
+        <f t="shared" si="2"/>
+        <v>0.19200000000000012</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="3"/>
+        <v>25039.055040059146</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="4"/>
+        <v>13020.833333333323</v>
+      </c>
+    </row>
+    <row r="28" spans="11:14">
+      <c r="K28" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="3"/>
+        <v>23392.141905702902</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="4"/>
+        <v>12499.999999999991</v>
+      </c>
+    </row>
+    <row r="29" spans="11:14">
+      <c r="K29" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000013</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="3"/>
+        <v>21911.953168693541</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="4"/>
+        <v>12019.23076923076</v>
+      </c>
+    </row>
+    <row r="30" spans="11:14">
+      <c r="K30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21600000000000014</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="3"/>
+        <v>20576.131687242774</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="4"/>
+        <v>11574.074074074064</v>
+      </c>
+    </row>
+    <row r="31" spans="11:14">
+      <c r="K31" s="6">
+        <f t="shared" si="2"/>
+        <v>0.22400000000000014</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="3"/>
+        <v>19366.001096145781</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="4"/>
+        <v>11160.714285714277</v>
+      </c>
+    </row>
+    <row r="32" spans="11:14">
+      <c r="K32" s="6">
+        <f t="shared" si="2"/>
+        <v>0.23200000000000015</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="3"/>
+        <v>18265.855087311793</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="4"/>
+        <v>10775.862068965509</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14">
+      <c r="K33" s="6">
+        <f t="shared" si="2"/>
+        <v>0.24000000000000016</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="3"/>
+        <v>17262.402810854754</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="4"/>
+        <v>10416.666666666659</v>
+      </c>
+    </row>
+    <row r="34" spans="11:14">
+      <c r="K34" s="6">
+        <f t="shared" si="2"/>
+        <v>0.24800000000000016</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="3"/>
+        <v>16344.332218477566</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="4"/>
+        <v>10080.645161290315</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14">
+      <c r="K35" s="6">
+        <f t="shared" si="2"/>
+        <v>0.25600000000000017</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="3"/>
+        <v>15501.963398126927</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="4"/>
+        <v>9765.6249999999909</v>
+      </c>
+    </row>
+    <row r="36" spans="11:14">
+      <c r="K36" s="6">
+        <f t="shared" si="2"/>
+        <v>0.26400000000000018</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="3"/>
+        <v>14726.971212102029</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="4"/>
+        <v>9469.6969696969609</v>
+      </c>
+    </row>
+    <row r="37" spans="11:14">
+      <c r="K37" s="6">
+        <f t="shared" si="2"/>
+        <v>0.27200000000000019</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="3"/>
+        <v>14012.161770231311</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="4"/>
+        <v>9191.1764705882269</v>
+      </c>
+    </row>
+    <row r="38" spans="11:14">
+      <c r="K38" s="6">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000019</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="3"/>
+        <v>13351.291061994227</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="4"/>
+        <v>8928.5714285714203</v>
+      </c>
+    </row>
+    <row r="39" spans="11:14">
+      <c r="K39" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2880000000000002</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="3"/>
+        <v>12738.916855303329</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="4"/>
+        <v>8680.5555555555475</v>
+      </c>
+    </row>
+    <row r="40" spans="11:14">
+      <c r="K40" s="6">
+        <f t="shared" si="2"/>
+        <v>0.29600000000000021</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="3"/>
+        <v>12170.277033038526</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="4"/>
+        <v>8445.9459459459376</v>
+      </c>
+    </row>
+    <row r="41" spans="11:14">
+      <c r="K41" s="6">
+        <f t="shared" si="2"/>
+        <v>0.30400000000000021</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="3"/>
+        <v>11641.189081713848</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="4"/>
+        <v>8223.6842105263077</v>
+      </c>
+    </row>
+    <row r="42" spans="11:14">
+      <c r="K42" s="6">
+        <f t="shared" si="2"/>
+        <v>0.31200000000000022</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="3"/>
+        <v>11147.966610828933</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="4"/>
+        <v>8012.8205128205054</v>
+      </c>
+    </row>
+    <row r="43" spans="11:14">
+      <c r="K43" s="6">
+        <f t="shared" si="2"/>
+        <v>0.32000000000000023</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="3"/>
+        <v>10687.349666729342</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="4"/>
+        <v>7812.4999999999927</v>
+      </c>
+    </row>
+    <row r="44" spans="11:14">
+      <c r="K44" s="6">
+        <f t="shared" si="2"/>
+        <v>0.32800000000000024</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="3"/>
+        <v>10256.446283113402</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="4"/>
+        <v>7621.9512195121879</v>
+      </c>
+    </row>
+    <row r="45" spans="11:14">
+      <c r="K45" s="6">
+        <f t="shared" si="2"/>
+        <v>0.33600000000000024</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="3"/>
+        <v>9852.6832338051136</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="4"/>
+        <v>7440.4761904761835</v>
+      </c>
+    </row>
+    <row r="46" spans="11:14">
+      <c r="K46" s="6">
+        <f t="shared" si="2"/>
+        <v>0.34400000000000025</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="3"/>
+        <v>9473.7643601587861</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="4"/>
+        <v>7267.44186046511</v>
+      </c>
+    </row>
+    <row r="47" spans="11:14">
+      <c r="K47" s="6">
+        <f t="shared" si="2"/>
+        <v>0.35200000000000026</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="3"/>
+        <v>9117.6351635487026</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="4"/>
+        <v>7102.2727272727207</v>
+      </c>
+    </row>
+    <row r="48" spans="11:14">
+      <c r="K48" s="6">
+        <f t="shared" si="2"/>
+        <v>0.36000000000000026</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="3"/>
+        <v>8782.452603679154</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="4"/>
+        <v>6944.444444444438</v>
+      </c>
+    </row>
+    <row r="49" spans="11:14">
+      <c r="K49" s="6">
+        <f t="shared" si="2"/>
+        <v>0.36800000000000027</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="3"/>
+        <v>8466.559241531053</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="4"/>
+        <v>6793.4782608695587</v>
+      </c>
+    </row>
+    <row r="50" spans="11:14">
+      <c r="K50" s="6">
+        <f t="shared" si="2"/>
+        <v>0.37600000000000028</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="3"/>
+        <v>8168.4610234012889</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="4"/>
+        <v>6648.9361702127599</v>
+      </c>
+    </row>
+    <row r="51" spans="11:14">
+      <c r="K51" s="6">
+        <f t="shared" si="2"/>
+        <v>0.38400000000000029</v>
+      </c>
+      <c r="M51" s="3">
+        <f t="shared" si="3"/>
+        <v>7886.8081286117058</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="4"/>
+        <v>6510.4166666666606</v>
+      </c>
+    </row>
+    <row r="52" spans="11:14">
+      <c r="K52" s="6">
+        <f t="shared" si="2"/>
+        <v>0.39200000000000029</v>
+      </c>
+      <c r="M52" s="3">
+        <f t="shared" si="3"/>
+        <v>7620.3784048791467</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="4"/>
+        <v>6377.5510204081575</v>
+      </c>
+    </row>
+    <row r="53" spans="11:14">
+      <c r="K53" s="6">
+        <f t="shared" si="2"/>
+        <v>0.4000000000000003</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="3"/>
+        <v>7368.0629972807628</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="4"/>
+        <v>6249.9999999999945</v>
+      </c>
+    </row>
+    <row r="54" spans="11:14">
+      <c r="K54" s="6">
+        <f t="shared" si="2"/>
+        <v>0.40800000000000031</v>
+      </c>
+      <c r="M54" s="3">
+        <f t="shared" si="3"/>
+        <v>7128.8538432644818</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="4"/>
+        <v>6127.450980392151</v>
+      </c>
+    </row>
+    <row r="55" spans="11:14">
+      <c r="K55" s="6">
+        <f t="shared" si="2"/>
+        <v>0.41600000000000031</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="3"/>
+        <v>6901.8327603869138</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="4"/>
+        <v>6009.6153846153793</v>
+      </c>
+    </row>
+    <row r="56" spans="11:14">
+      <c r="K56" s="6">
+        <f t="shared" si="2"/>
+        <v>0.42400000000000032</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="3"/>
+        <v>6686.1618978659071</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="4"/>
+        <v>5896.2264150943338</v>
+      </c>
+    </row>
+    <row r="57" spans="11:14">
+      <c r="K57" s="6">
+        <f t="shared" si="2"/>
+        <v>0.43200000000000033</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="3"/>
+        <v>6481.075359541519</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="4"/>
+        <v>5787.037037037032</v>
+      </c>
+    </row>
+    <row r="58" spans="11:14">
+      <c r="K58" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44000000000000034</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="3"/>
+        <v>6285.8718359692321</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="4"/>
+        <v>5681.8181818181765</v>
+      </c>
+    </row>
+    <row r="59" spans="11:14">
+      <c r="K59" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44800000000000034</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="3"/>
+        <v>6099.9081083303126</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="4"/>
+        <v>5580.3571428571377</v>
+      </c>
+    </row>
+    <row r="60" spans="11:14">
+      <c r="K60" s="6">
+        <f t="shared" si="2"/>
+        <v>0.45600000000000035</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="3"/>
+        <v>5922.5933075974135</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="4"/>
+        <v>5482.4561403508724</v>
+      </c>
+    </row>
+    <row r="61" spans="11:14">
+      <c r="K61" s="6">
+        <f t="shared" si="2"/>
+        <v>0.46400000000000036</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="3"/>
+        <v>5753.3838297083694</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="4"/>
+        <v>5387.9310344827536</v>
+      </c>
+    </row>
+    <row r="62" spans="11:14">
+      <c r="K62" s="6">
+        <f t="shared" si="2"/>
+        <v>0.47200000000000036</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="3"/>
+        <v>5591.7788219954818</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="4"/>
+        <v>5296.6101694915205</v>
+      </c>
+    </row>
+    <row r="63" spans="11:14">
+      <c r="K63" s="6">
+        <f t="shared" si="2"/>
+        <v>0.48000000000000037</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="3"/>
+        <v>5437.3161682900791</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="4"/>
+        <v>5208.3333333333285</v>
+      </c>
+    </row>
+    <row r="64" spans="11:14">
+      <c r="K64" s="6">
+        <f t="shared" si="2"/>
+        <v>0.48800000000000038</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="3"/>
+        <v>5289.568910376468</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="4"/>
+        <v>5122.9508196721263</v>
+      </c>
+    </row>
+    <row r="65" spans="11:14">
+      <c r="K65" s="6">
+        <f t="shared" si="2"/>
+        <v>0.49600000000000039</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="3"/>
+        <v>5148.142052133715</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="4"/>
+        <v>5040.3225806451564</v>
+      </c>
+    </row>
+    <row r="66" spans="11:14">
+      <c r="K66" s="6">
+        <f t="shared" si="2"/>
+        <v>0.50400000000000034</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" si="3"/>
+        <v>5012.6697000458371</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="4"/>
+        <v>4960.3174603174557</v>
+      </c>
+    </row>
+    <row r="67" spans="11:14">
+      <c r="K67" s="6">
+        <f t="shared" si="2"/>
+        <v>0.51200000000000034</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="3"/>
+        <v>4882.8124999999936</v>
+      </c>
+      <c r="N67" s="3">
+        <f t="shared" si="4"/>
+        <v>4882.8124999999955</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G6" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -139,8 +139,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -207,8 +207,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -235,8 +235,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236037"/>
-          <c:y val="5.0322309711286088E-2"/>
+          <c:x val="0.36134811309236042"/>
+          <c:y val="5.0322309711286095E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
         </c:manualLayout>
@@ -1545,11 +1545,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="42788736"/>
-        <c:axId val="42787200"/>
+        <c:axId val="106614784"/>
+        <c:axId val="106617088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42788736"/>
+        <c:axId val="106614784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1586,13 +1586,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42787200"/>
+        <c:crossAx val="106617088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42787200"/>
+        <c:axId val="106617088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1631,14 +1631,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.417057217847769"/>
+              <c:y val="0.41705721784776906"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42788736"/>
-        <c:crossesAt val="1.0000000000000002E-4"/>
+        <c:crossAx val="106614784"/>
+        <c:crossesAt val="1.0000000000000005E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1659,10 +1659,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73873283123296685"/>
+          <c:x val="0.73873283123296674"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725282"/>
+          <c:h val="0.27214418197725287"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1688,9 +1688,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1704,7 +1705,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236048"/>
+          <c:x val="0.36134811309236053"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -3014,11 +3015,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155365376"/>
-        <c:axId val="155367296"/>
+        <c:axId val="106684800"/>
+        <c:axId val="106686720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155365376"/>
+        <c:axId val="106684800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,16 +3055,15 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155367296"/>
+        <c:crossAx val="106686720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155367296"/>
+        <c:axId val="106686720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines>
@@ -3098,14 +3098,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776911"/>
+              <c:y val="0.41705721784776917"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155365376"/>
-        <c:crossesAt val="1.0000000000000007E-4"/>
+        <c:crossAx val="106684800"/>
+        <c:crossesAt val="1.0000000000000009E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3126,10 +3126,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73136634659194233"/>
-          <c:y val="7.2816797900262478E-2"/>
+          <c:x val="0.73136634659194222"/>
+          <c:y val="7.2816797900262506E-2"/>
           <c:w val="0.20762436960727645"/>
-          <c:h val="0.32103307086614175"/>
+          <c:h val="0.3210330708661418"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3155,9 +3155,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3224,6 +3225,1011 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49171</cdr:x>
+      <cdr:y>0.12333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56354</cdr:x>
+      <cdr:y>0.22</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1695450" y="352425"/>
+          <a:ext cx="247650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.70442</cdr:x>
+      <cdr:y>0.33</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.77624</cdr:x>
+      <cdr:y>0.42667</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2428875" y="942975"/>
+          <a:ext cx="247650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86188</cdr:x>
+      <cdr:y>0.69333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9337</cdr:x>
+      <cdr:y>0.79</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2971800" y="1981200"/>
+          <a:ext cx="247650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.64917</cdr:x>
+      <cdr:y>0.50667</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72099</cdr:x>
+      <cdr:y>0.60333</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2238375" y="1447800"/>
+          <a:ext cx="247650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.62155</cdr:x>
+      <cdr:y>0.27333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.68785</cdr:x>
+      <cdr:y>0.33667</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2143125" y="781050"/>
+          <a:ext cx="228600" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79834</cdr:x>
+      <cdr:y>0.47333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84807</cdr:x>
+      <cdr:y>0.56</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipH="1">
+          <a:off x="2714627" y="1390653"/>
+          <a:ext cx="247648" cy="171447"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74586</cdr:x>
+      <cdr:y>0.6</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.81768</cdr:x>
+      <cdr:y>0.67</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="2571750" y="1714500"/>
+          <a:ext cx="247650" cy="200027"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.58287</cdr:x>
+      <cdr:y>0.36333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64365</cdr:x>
+      <cdr:y>0.46</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipV="1">
+          <a:off x="2009775" y="1038225"/>
+          <a:ext cx="209551" cy="276226"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3674</cdr:x>
+      <cdr:y>0.05667</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43923</cdr:x>
+      <cdr:y>0.15333</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1266825" y="161925"/>
+          <a:ext cx="247650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42541</cdr:x>
+      <cdr:y>0.67</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.49724</cdr:x>
+      <cdr:y>0.76667</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1466850" y="1914525"/>
+          <a:ext cx="247650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85635</cdr:x>
+      <cdr:y>0.73333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92818</cdr:x>
+      <cdr:y>0.83</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2952750" y="2095500"/>
+          <a:ext cx="247650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38122</cdr:x>
+      <cdr:y>0.80333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45304</cdr:x>
+      <cdr:y>0.9</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1314450" y="2295525"/>
+          <a:ext cx="247650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.40055</cdr:x>
+      <cdr:y>0.34667</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40332</cdr:x>
+      <cdr:y>0.45333</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipH="1">
+          <a:off x="1381124" y="990599"/>
+          <a:ext cx="9526" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48343</cdr:x>
+      <cdr:y>0.76</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55801</cdr:x>
+      <cdr:y>0.79333</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1666875" y="2171700"/>
+          <a:ext cx="257175" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63812</cdr:x>
+      <cdr:y>0.86333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72652</cdr:x>
+      <cdr:y>0.86667</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="2200275" y="2466976"/>
+          <a:ext cx="304800" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3674</cdr:x>
+      <cdr:y>0.73</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37569</cdr:x>
+      <cdr:y>0.81333</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipV="1">
+          <a:off x="1266826" y="2085975"/>
+          <a:ext cx="28576" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3770,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3923,7 +4929,7 @@
         <v>1.6000000000000004E-2</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" ref="L5:N11" si="1">($B$6*$B$3*$B$4)/$K5</f>
+        <f t="shared" ref="L5:L11" si="1">($B$6*$B$3*$B$4)/$K5</f>
         <v>624999.99999999977</v>
       </c>
       <c r="O5" s="3">
@@ -3963,7 +4969,7 @@
         <v>1599.9999999999998</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" ref="K6:K69" si="2">K5+$B$11</f>
+        <f t="shared" ref="K6:K67" si="2">K5+$B$11</f>
         <v>2.4000000000000007E-2</v>
       </c>
       <c r="L6" s="3">

--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -4776,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Mpa</t>
   </si>
@@ -131,6 +131,81 @@
   <si>
     <t>ΔV (m3)</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>a + bx</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Σx</t>
+  </si>
+  <si>
+    <t>Σy</t>
+  </si>
+  <si>
+    <t>Σxy</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>Σxx</t>
+  </si>
+  <si>
+    <t>Σyy</t>
+  </si>
+  <si>
+    <t>&lt;x&gt;</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>&lt;y&gt;</t>
+  </si>
+  <si>
+    <t>ΣxΣx</t>
+  </si>
+  <si>
+    <t>ΣxΣy</t>
+  </si>
+  <si>
+    <t>ΣyΣy</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://www.statisticshowto.com/probability-and-statistics/regression-analysis/find-a-linear-regression-equation/</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>Stephanie Glen. "The Practically Cheating Statistics Handbook" From StatisticsHowTo.com: Elementary Statistics for the rest of us! https://www.statisticshowto.com/the-practically-cheating-statistics-handbook/[20201226]</t>
+  </si>
+  <si>
+    <t>Stephanie Glen. "Coefficient of Determination (R Squared): Definition, Calculation" From StatisticsHowTo.com: Elementary Statistics for the rest of us! https://www.statisticshowto.com/probability-and-statistics/coefficient-of-determination-r-squared/</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +217,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +238,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,6 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,8 +317,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236042"/>
-          <c:y val="5.0322309711286095E-2"/>
+          <c:x val="0.36134811309236048"/>
+          <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
         </c:manualLayout>
@@ -1545,11 +1627,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106614784"/>
-        <c:axId val="106617088"/>
+        <c:axId val="107647360"/>
+        <c:axId val="107649664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106614784"/>
+        <c:axId val="107647360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1586,13 +1668,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106617088"/>
+        <c:crossAx val="107649664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106617088"/>
+        <c:axId val="107649664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1631,14 +1713,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776906"/>
+              <c:y val="0.41705721784776911"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106614784"/>
-        <c:crossesAt val="1.0000000000000005E-4"/>
+        <c:crossAx val="107647360"/>
+        <c:crossesAt val="1.0000000000000007E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1659,10 +1741,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73873283123296674"/>
+          <c:x val="0.73873283123296662"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725287"/>
+          <c:h val="0.27214418197725293"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1688,7 +1770,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1705,7 +1787,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236053"/>
+          <c:x val="0.36134811309236065"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -3015,11 +3097,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106684800"/>
-        <c:axId val="106686720"/>
+        <c:axId val="107705472"/>
+        <c:axId val="107707392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106684800"/>
+        <c:axId val="107705472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,17 +3133,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106686720"/>
+        <c:crossAx val="107707392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106686720"/>
+        <c:axId val="107707392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3098,14 +3179,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776917"/>
+              <c:y val="0.41705721784776922"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106684800"/>
-        <c:crossesAt val="1.0000000000000009E-4"/>
+        <c:crossAx val="107705472"/>
+        <c:crossesAt val="1.0000000000000011E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3126,8 +3207,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73136634659194222"/>
-          <c:y val="7.2816797900262506E-2"/>
+          <c:x val="0.73136634659194211"/>
+          <c:y val="7.2816797900262534E-2"/>
           <c:w val="0.20762436960727645"/>
           <c:h val="0.3210330708661418"/>
         </c:manualLayout>
@@ -3155,10 +3236,333 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15007020816612798"/>
+          <c:y val="5.3916760404949381E-2"/>
+          <c:w val="0.78932373122781141"/>
+          <c:h val="0.73934060165556237"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="19050"/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41215939961322451"/>
+                  <c:y val="5.1442694663167102E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" i="1" baseline="0"/>
+                      <a:t>y</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> = 0.5</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" i="1" baseline="0"/>
+                      <a:t>x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 5
+</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" i="1" baseline="0"/>
+                      <a:t>R</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>² = 1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2'!$A$10:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2'!$B$10:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="43566208"/>
+        <c:axId val="43564416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="43566208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43564416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43564416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43566208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67361510391110524"/>
+          <c:y val="0.38856605424321961"/>
+          <c:w val="0.23248820561452918"/>
+          <c:h val="0.20064566929133859"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4232,6 +4636,41 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4776,7 +5215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11:G14"/>
     </sheetView>
   </sheetViews>
@@ -6014,12 +6453,428 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="4" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" customWidth="1"/>
+    <col min="8" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" customWidth="1"/>
+    <col min="11" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <f>SUM(A10:A20)</f>
+        <v>55</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <f>SUM(D10:D20)</f>
+        <v>385</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3">
+        <f>F3^2</f>
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B10:B20)</f>
+        <v>82.5</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <f>SUM(E10:E20)</f>
+        <v>467.5</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4">
+        <f>F3*F4</f>
+        <v>4537.5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4">
+        <f>(F4*I3-F3*I4)/(F5*I3-L3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <f>COUNT(A10:A20)</f>
+        <v>11</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5">
+        <f>SUM(F10:F20)</f>
+        <v>646.25</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5">
+        <f>F4^2</f>
+        <v>6806.25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5">
+        <f>(F5*I4-F3*F4)/(F5*I3-L3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <f>F3/$F$5</f>
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <f>(F5*I4-F3*F4)/SQRT((F5*I3-L3)*(F5*I5-L5))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <f>F4/$F$5</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>$B$4+$B$5*A10</f>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f>A10^2</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>A10*B10</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>B10^2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:B20" si="0">$B$4+$B$5*A11</f>
+        <v>5.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D20" si="1">A11^2</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E20" si="2">A11*B11</f>
+        <v>5.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F20" si="3">B11^2</f>
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>59.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>85.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>90.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="C23" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>Mpa</t>
   </si>
@@ -206,6 +207,24 @@
   <si>
     <t>Stephanie Glen. "Coefficient of Determination (R Squared): Definition, Calculation" From StatisticsHowTo.com: Elementary Statistics for the rest of us! https://www.statisticshowto.com/probability-and-statistics/coefficient-of-determination-r-squared/</t>
   </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>y = 0</t>
+  </si>
+  <si>
+    <t>100% zoom</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -294,10 +313,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,7 +337,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236048"/>
+          <c:x val="0.36134811309236053"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -1627,11 +1647,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107647360"/>
-        <c:axId val="107649664"/>
+        <c:axId val="92725248"/>
+        <c:axId val="92727552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107647360"/>
+        <c:axId val="92725248"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1664,17 +1684,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107649664"/>
+        <c:crossAx val="92727552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107649664"/>
+        <c:axId val="92727552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1713,14 +1732,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776911"/>
+              <c:y val="0.41705721784776917"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107647360"/>
-        <c:crossesAt val="1.0000000000000007E-4"/>
+        <c:crossAx val="92725248"/>
+        <c:crossesAt val="1.0000000000000009E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1741,10 +1760,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73873283123296662"/>
+          <c:x val="0.73873283123296651"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725293"/>
+          <c:h val="0.27214418197725304"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1770,7 +1789,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1787,7 +1806,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236065"/>
+          <c:x val="0.36134811309236076"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -3097,11 +3116,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107705472"/>
-        <c:axId val="107707392"/>
+        <c:axId val="92857088"/>
+        <c:axId val="92859008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107705472"/>
+        <c:axId val="92857088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3136,13 +3155,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107707392"/>
+        <c:crossAx val="92859008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107707392"/>
+        <c:axId val="92859008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3179,14 +3198,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776922"/>
+              <c:y val="0.41705721784776928"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107705472"/>
-        <c:crossesAt val="1.0000000000000011E-4"/>
+        <c:crossAx val="92857088"/>
+        <c:crossesAt val="1.0000000000000013E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3207,8 +3226,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73136634659194211"/>
-          <c:y val="7.2816797900262534E-2"/>
+          <c:x val="0.731366346591942"/>
+          <c:y val="7.2816797900262548E-2"/>
           <c:w val="0.20762436960727645"/>
           <c:h val="0.3210330708661418"/>
         </c:manualLayout>
@@ -3236,7 +3255,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3254,10 +3273,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15007020816612798"/>
-          <c:y val="5.3916760404949381E-2"/>
+          <c:x val="0.15007020816612801"/>
+          <c:y val="5.3916760404949388E-2"/>
           <c:w val="0.78932373122781141"/>
-          <c:h val="0.73934060165556237"/>
+          <c:h val="0.73934060165556259"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3299,7 +3318,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.41215939961322451"/>
-                  <c:y val="5.1442694663167102E-2"/>
+                  <c:y val="5.1442694663167095E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3432,11 +3451,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="43566208"/>
-        <c:axId val="43564416"/>
+        <c:axId val="103844864"/>
+        <c:axId val="92939776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43566208"/>
+        <c:axId val="103844864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -3470,14 +3489,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43564416"/>
+        <c:crossAx val="92939776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43564416"/>
+        <c:axId val="92939776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +3528,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43566208"/>
+        <c:crossAx val="103844864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3531,9 +3550,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67361510391110524"/>
-          <c:y val="0.38856605424321961"/>
-          <c:w val="0.23248820561452918"/>
+          <c:x val="0.67361510391110535"/>
+          <c:y val="0.38856605424321966"/>
+          <c:w val="0.23248820561452921"/>
           <c:h val="0.20064566929133859"/>
         </c:manualLayout>
       </c:layout>
@@ -3560,9 +3579,390 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040891429041345"/>
+          <c:y val="5.6140360786186942E-2"/>
+          <c:w val="0.77380344428225845"/>
+          <c:h val="0.72085707899873241"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3'!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3'!$B$6:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3'!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3'!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="38419840"/>
+        <c:axId val="38418304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="38419840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51759791122715404"/>
+              <c:y val="0.89855157828827881"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38418304"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="38418304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38419840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17225413402959092"/>
+          <c:y val="0.10302858586191374"/>
+          <c:w val="0.19067014795474327"/>
+          <c:h val="0.19630870723258742"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -4669,6 +5069,373 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2141</cdr:x>
+      <cdr:y>0.55296</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23916</cdr:x>
+      <cdr:y>0.58985</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Oval 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="781050" y="1370622"/>
+          <a:ext cx="91440" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52567</cdr:x>
+      <cdr:y>0.55592</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55074</cdr:x>
+      <cdr:y>0.59281</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Oval 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1917700" y="1377950"/>
+          <a:ext cx="91440" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75718</cdr:x>
+      <cdr:y>0.55592</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78225</cdr:x>
+      <cdr:y>0.59281</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Oval 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2762250" y="1377950"/>
+          <a:ext cx="91440" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5243,12 +6010,12 @@
         <v>31</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
@@ -6455,7 +7222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -6494,21 +7261,21 @@
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F3">
         <f>SUM(A10:A20)</f>
         <v>55</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I3">
         <f>SUM(D10:D20)</f>
         <v>385</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>55</v>
       </c>
       <c r="L3">
@@ -6523,21 +7290,21 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F4">
         <f>SUM(B10:B20)</f>
         <v>82.5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I4">
         <f>SUM(E10:E20)</f>
         <v>467.5</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>56</v>
       </c>
       <c r="L4">
@@ -6566,14 +7333,14 @@
         <f>COUNT(A10:A20)</f>
         <v>11</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="I5">
         <f>SUM(F10:F20)</f>
         <v>646.25</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>57</v>
       </c>
       <c r="L5">
@@ -6870,11 +7637,205 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="C23" s="13"/>
+      <c r="C23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1">
+        <v>0.05</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>$B$1*($A6-$B$2)*($A6-$B$3)*($A6-$B$4)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C16" si="0">$B$1*($A7-$B$2)*($A7-$B$3)*($A7-$B$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>Mpa</t>
   </si>
@@ -225,6 +226,30 @@
   <si>
     <t>100% zoom</t>
   </si>
+  <si>
+    <t>g(x)</t>
+  </si>
+  <si>
+    <t>h(x)</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>x21</t>
+  </si>
+  <si>
+    <t>x22</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
 </sst>
 </file>
 
@@ -314,10 +339,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,7 +362,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236053"/>
+          <c:x val="0.36134811309236065"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -1647,11 +1672,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="92725248"/>
-        <c:axId val="92727552"/>
+        <c:axId val="108532096"/>
+        <c:axId val="108534400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92725248"/>
+        <c:axId val="108532096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1687,13 +1712,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92727552"/>
+        <c:crossAx val="108534400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92727552"/>
+        <c:axId val="108534400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1732,14 +1757,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776917"/>
+              <c:y val="0.41705721784776922"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92725248"/>
-        <c:crossesAt val="1.0000000000000009E-4"/>
+        <c:crossAx val="108532096"/>
+        <c:crossesAt val="1.0000000000000011E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1763,7 +1788,7 @@
           <c:x val="0.73873283123296651"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725304"/>
+          <c:h val="0.27214418197725315"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1789,7 +1814,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1806,7 +1831,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236076"/>
+          <c:x val="0.36134811309236087"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -3116,11 +3141,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="92857088"/>
-        <c:axId val="92859008"/>
+        <c:axId val="108565632"/>
+        <c:axId val="108567552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92857088"/>
+        <c:axId val="108565632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,13 +3180,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92859008"/>
+        <c:crossAx val="108567552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92859008"/>
+        <c:axId val="108567552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,14 +3223,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776928"/>
+              <c:y val="0.41705721784776933"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92857088"/>
-        <c:crossesAt val="1.0000000000000013E-4"/>
+        <c:crossAx val="108565632"/>
+        <c:crossesAt val="1.0000000000000015E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3226,8 +3251,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.731366346591942"/>
-          <c:y val="7.2816797900262548E-2"/>
+          <c:x val="0.73136634659194188"/>
+          <c:y val="7.2816797900262575E-2"/>
           <c:w val="0.20762436960727645"/>
           <c:h val="0.3210330708661418"/>
         </c:manualLayout>
@@ -3255,7 +3280,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3273,10 +3298,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15007020816612801"/>
-          <c:y val="5.3916760404949388E-2"/>
+          <c:x val="0.15007020816612804"/>
+          <c:y val="5.3916760404949401E-2"/>
           <c:w val="0.78932373122781141"/>
-          <c:h val="0.73934060165556259"/>
+          <c:h val="0.73934060165556281"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3451,11 +3476,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="103844864"/>
-        <c:axId val="92939776"/>
+        <c:axId val="109985792"/>
+        <c:axId val="109987712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103844864"/>
+        <c:axId val="109985792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -3485,18 +3510,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92939776"/>
+        <c:crossAx val="109987712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92939776"/>
+        <c:axId val="109987712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,11 +3548,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103844864"/>
+        <c:crossAx val="109985792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3550,8 +3573,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67361510391110535"/>
-          <c:y val="0.38856605424321966"/>
+          <c:x val="0.67361510391110546"/>
+          <c:y val="0.38856605424321972"/>
           <c:w val="0.23248820561452921"/>
           <c:h val="0.20064566929133859"/>
         </c:manualLayout>
@@ -3579,7 +3602,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3596,10 +3619,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041345"/>
-          <c:y val="5.6140360786186942E-2"/>
+          <c:x val="0.15040891429041348"/>
+          <c:y val="5.6140360786186928E-2"/>
           <c:w val="0.77380344428225845"/>
-          <c:h val="0.72085707899873241"/>
+          <c:h val="0.72085707899873253"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3824,11 +3847,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="38419840"/>
-        <c:axId val="38418304"/>
+        <c:axId val="108653184"/>
+        <c:axId val="110174976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38419840"/>
+        <c:axId val="108653184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3861,20 +3884,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.51759791122715404"/>
+              <c:x val="0.51759791122715393"/>
               <c:y val="0.89855157828827881"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38418304"/>
+        <c:crossAx val="110174976"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38418304"/>
+        <c:axId val="110174976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3908,7 +3931,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38419840"/>
+        <c:crossAx val="108653184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3930,10 +3953,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17225413402959092"/>
-          <c:y val="0.10302858586191374"/>
-          <c:w val="0.19067014795474327"/>
-          <c:h val="0.19630870723258742"/>
+          <c:x val="0.17225413402959094"/>
+          <c:y val="0.10302858586191375"/>
+          <c:w val="0.19067014795474324"/>
+          <c:h val="0.19630870723258739"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3959,7 +3982,879 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040891429041353"/>
+          <c:y val="5.6140360786186894E-2"/>
+          <c:w val="0.77380344428225845"/>
+          <c:h val="0.72085707899873264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4'!$B$7:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>h(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4'!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4'!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="89658880"/>
+        <c:axId val="89660800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89658880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51759791122715371"/>
+              <c:y val="0.89855157828827881"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89660800"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89660800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89658880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16178516482504934"/>
+          <c:y val="6.7163083199324805E-2"/>
+          <c:w val="0.5914890378132176"/>
+          <c:h val="8.9516754360555423E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040891429041359"/>
+          <c:y val="5.6140360786186866E-2"/>
+          <c:w val="0.77380344428225845"/>
+          <c:h val="0.72085707899873264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4'!$B$7:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4'!$E$7:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.60000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="51461120"/>
+        <c:axId val="51504640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51461120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51759791122715348"/>
+              <c:y val="0.89855157828827881"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51504640"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51504640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="-3"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51461120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16178516482504934"/>
+          <c:y val="6.7163083199324833E-2"/>
+          <c:w val="0.364612826538044"/>
+          <c:h val="8.9516754360555423E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5438,6 +6333,467 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13838</cdr:x>
+      <cdr:y>0.6375</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16344</cdr:x>
+      <cdr:y>0.67439</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Oval 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="504828" y="1580171"/>
+          <a:ext cx="91421" cy="91439"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.64445</cdr:x>
+      <cdr:y>0.2485</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66952</cdr:x>
+      <cdr:y>0.28539</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Oval 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2345351" y="615958"/>
+          <a:ext cx="91237" cy="91439"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13576</cdr:x>
+      <cdr:y>0.40309</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16082</cdr:x>
+      <cdr:y>0.43998</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Oval 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="493978" y="999145"/>
+          <a:ext cx="91182" cy="91439"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63921</cdr:x>
+      <cdr:y>0.39837</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66428</cdr:x>
+      <cdr:y>0.43526</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Oval 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2325814" y="987431"/>
+          <a:ext cx="91218" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6010,12 +7366,12 @@
         <v>31</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
@@ -7650,8 +9006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7663,7 +9019,7 @@
       <c r="B1">
         <v>0.05</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7838,4 +9194,309 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1">
+        <v>0.5</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>$B$1*$A7+$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>$B$3*($A7-$B$4)*($A7-$B$5)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>C7-D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C17" si="0">$B$1*$A8+$B$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D17" si="1">$B$3*($A8-$B$4)*($A8-$B$5)</f>
+        <v>1.6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E17" si="2">C8-D8</f>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-1.8000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>-2.1000000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>-0.60000000000000053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0.69999999999999973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="P21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>Mpa</t>
   </si>
@@ -362,7 +363,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236065"/>
+          <c:x val="0.36134811309236076"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -1672,11 +1673,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="108532096"/>
-        <c:axId val="108534400"/>
+        <c:axId val="117117696"/>
+        <c:axId val="117120000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108532096"/>
+        <c:axId val="117117696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1712,13 +1713,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108534400"/>
+        <c:crossAx val="117120000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108534400"/>
+        <c:axId val="117120000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1757,14 +1758,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776922"/>
+              <c:y val="0.41705721784776928"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108532096"/>
-        <c:crossesAt val="1.0000000000000011E-4"/>
+        <c:crossAx val="117117696"/>
+        <c:crossesAt val="1.0000000000000013E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1788,7 +1789,7 @@
           <c:x val="0.73873283123296651"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725315"/>
+          <c:h val="0.27214418197725326"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1814,7 +1815,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1831,7 +1832,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236087"/>
+          <c:x val="0.36134811309236092"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -3141,11 +3142,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="108565632"/>
-        <c:axId val="108567552"/>
+        <c:axId val="117175808"/>
+        <c:axId val="117177728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108565632"/>
+        <c:axId val="117175808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,13 +3181,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108567552"/>
+        <c:crossAx val="117177728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108567552"/>
+        <c:axId val="117177728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,14 +3224,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776933"/>
+              <c:y val="0.41705721784776939"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108565632"/>
-        <c:crossesAt val="1.0000000000000015E-4"/>
+        <c:crossAx val="117175808"/>
+        <c:crossesAt val="1.0000000000000018E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3251,8 +3252,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73136634659194188"/>
-          <c:y val="7.2816797900262575E-2"/>
+          <c:x val="0.73136634659194177"/>
+          <c:y val="7.2816797900262603E-2"/>
           <c:w val="0.20762436960727645"/>
           <c:h val="0.3210330708661418"/>
         </c:manualLayout>
@@ -3280,7 +3281,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3298,10 +3299,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15007020816612804"/>
-          <c:y val="5.3916760404949401E-2"/>
+          <c:x val="0.15007020816612807"/>
+          <c:y val="5.3916760404949408E-2"/>
           <c:w val="0.78932373122781141"/>
-          <c:h val="0.73934060165556281"/>
+          <c:h val="0.73934060165556292"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3476,11 +3477,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="109985792"/>
-        <c:axId val="109987712"/>
+        <c:axId val="118546816"/>
+        <c:axId val="118548736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109985792"/>
+        <c:axId val="118546816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -3513,14 +3514,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109987712"/>
+        <c:crossAx val="118548736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109987712"/>
+        <c:axId val="118548736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3551,7 +3552,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109985792"/>
+        <c:crossAx val="118546816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3573,8 +3574,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67361510391110546"/>
-          <c:y val="0.38856605424321972"/>
+          <c:x val="0.67361510391110568"/>
+          <c:y val="0.38856605424321977"/>
           <c:w val="0.23248820561452921"/>
           <c:h val="0.20064566929133859"/>
         </c:manualLayout>
@@ -3602,7 +3603,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3619,10 +3620,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041348"/>
-          <c:y val="5.6140360786186928E-2"/>
+          <c:x val="0.1504089142904135"/>
+          <c:y val="5.6140360786186914E-2"/>
           <c:w val="0.77380344428225845"/>
-          <c:h val="0.72085707899873253"/>
+          <c:h val="0.72085707899873264"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3847,11 +3848,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="108653184"/>
-        <c:axId val="110174976"/>
+        <c:axId val="118819840"/>
+        <c:axId val="118830208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108653184"/>
+        <c:axId val="118819840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3884,20 +3885,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.51759791122715393"/>
+              <c:x val="0.51759791122715382"/>
               <c:y val="0.89855157828827881"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110174976"/>
+        <c:crossAx val="118830208"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110174976"/>
+        <c:axId val="118830208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3931,7 +3932,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108653184"/>
+        <c:crossAx val="118819840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3954,9 +3955,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17225413402959094"/>
-          <c:y val="0.10302858586191375"/>
-          <c:w val="0.19067014795474324"/>
-          <c:h val="0.19630870723258739"/>
+          <c:y val="0.10302858586191377"/>
+          <c:w val="0.19067014795474319"/>
+          <c:h val="0.19630870723258736"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3982,7 +3983,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4000,8 +4001,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041353"/>
-          <c:y val="5.6140360786186894E-2"/>
+          <c:x val="0.15040891429041356"/>
+          <c:y val="5.614036078618688E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -4338,11 +4339,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89658880"/>
-        <c:axId val="89660800"/>
+        <c:axId val="118966912"/>
+        <c:axId val="118883072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89658880"/>
+        <c:axId val="118966912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4375,20 +4376,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.51759791122715371"/>
+              <c:x val="0.5175979112271536"/>
               <c:y val="0.89855157828827881"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89660800"/>
+        <c:crossAx val="118883072"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89660800"/>
+        <c:axId val="118883072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4422,7 +4423,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89658880"/>
+        <c:crossAx val="118966912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4445,8 +4446,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16178516482504934"/>
-          <c:y val="6.7163083199324805E-2"/>
-          <c:w val="0.5914890378132176"/>
+          <c:y val="6.7163083199324819E-2"/>
+          <c:w val="0.59148903781321749"/>
           <c:h val="8.9516754360555423E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4473,7 +4474,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4491,8 +4492,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041359"/>
-          <c:y val="5.6140360786186866E-2"/>
+          <c:x val="0.15040891429041361"/>
+          <c:y val="5.6140360786186859E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -4719,11 +4720,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="51461120"/>
-        <c:axId val="51504640"/>
+        <c:axId val="118896128"/>
+        <c:axId val="118898048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51461120"/>
+        <c:axId val="118896128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4763,13 +4764,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51504640"/>
+        <c:crossAx val="118898048"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51504640"/>
+        <c:axId val="118898048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -4803,7 +4804,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51461120"/>
+        <c:crossAx val="118896128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4827,7 +4828,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.16178516482504934"/>
           <c:y val="6.7163083199324833E-2"/>
-          <c:w val="0.364612826538044"/>
+          <c:w val="0.36461282653804405"/>
           <c:h val="8.9516754360555423E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4854,10 +4855,432 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040891429041356"/>
+          <c:y val="5.614036078618688E-2"/>
+          <c:w val="0.77380344428225845"/>
+          <c:h val="0.72085707899873264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5'!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5'!$B$6:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5'!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5'!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.3800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.54999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2050000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>root</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5'!$A$18:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5'!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="119021952"/>
+        <c:axId val="119023872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="119021952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.5175979112271536"/>
+              <c:y val="0.89855157828827881"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119023872"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="119023872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="-3"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119021952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4918,6 +5341,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9200,7 +9658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -9499,4 +9957,214 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1">
+        <v>0.05</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>$B$1*($A6-$B$2)*($A6-$B$3)*($A6-$B$4)</f>
+        <v>1.3800000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C16" si="0">$B$1*($A7-$B$2)*($A7-$B$3)*($A7-$B$4)</f>
+        <v>1.7150000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.3050000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.54999999999999982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-1.395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-1.7850000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-1.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2.7749999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>7.2050000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>3.45</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -363,7 +363,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236076"/>
+          <c:x val="0.36134811309236087"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -1673,11 +1673,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="117117696"/>
-        <c:axId val="117120000"/>
+        <c:axId val="112923776"/>
+        <c:axId val="112926080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117117696"/>
+        <c:axId val="112923776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1713,13 +1713,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117120000"/>
+        <c:crossAx val="112926080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117120000"/>
+        <c:axId val="112926080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1758,14 +1758,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776928"/>
+              <c:y val="0.41705721784776933"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117117696"/>
-        <c:crossesAt val="1.0000000000000013E-4"/>
+        <c:crossAx val="112923776"/>
+        <c:crossesAt val="1.0000000000000015E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1789,7 +1789,7 @@
           <c:x val="0.73873283123296651"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725326"/>
+          <c:h val="0.27214418197725337"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1815,7 +1815,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1832,7 +1832,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236092"/>
+          <c:x val="0.36134811309236098"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -3142,11 +3142,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="117175808"/>
-        <c:axId val="117177728"/>
+        <c:axId val="113051520"/>
+        <c:axId val="113123328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117175808"/>
+        <c:axId val="113051520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,13 +3181,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117177728"/>
+        <c:crossAx val="113123328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117177728"/>
+        <c:axId val="113123328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3224,14 +3224,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776939"/>
+              <c:y val="0.41705721784776945"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117175808"/>
-        <c:crossesAt val="1.0000000000000018E-4"/>
+        <c:crossAx val="113051520"/>
+        <c:crossesAt val="1.0000000000000022E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3252,8 +3252,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73136634659194177"/>
-          <c:y val="7.2816797900262603E-2"/>
+          <c:x val="0.73136634659194166"/>
+          <c:y val="7.2816797900262631E-2"/>
           <c:w val="0.20762436960727645"/>
           <c:h val="0.3210330708661418"/>
         </c:manualLayout>
@@ -3281,7 +3281,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3299,10 +3299,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15007020816612807"/>
-          <c:y val="5.3916760404949408E-2"/>
+          <c:x val="0.15007020816612812"/>
+          <c:y val="5.3916760404949415E-2"/>
           <c:w val="0.78932373122781141"/>
-          <c:h val="0.73934060165556292"/>
+          <c:h val="0.73934060165556303"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3477,11 +3477,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="118546816"/>
-        <c:axId val="118548736"/>
+        <c:axId val="113165056"/>
+        <c:axId val="113166976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118546816"/>
+        <c:axId val="113165056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -3514,14 +3514,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118548736"/>
+        <c:crossAx val="113166976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118548736"/>
+        <c:axId val="113166976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3552,7 +3552,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118546816"/>
+        <c:crossAx val="113165056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3574,8 +3574,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67361510391110568"/>
-          <c:y val="0.38856605424321977"/>
+          <c:x val="0.67361510391110579"/>
+          <c:y val="0.38856605424321983"/>
           <c:w val="0.23248820561452921"/>
           <c:h val="0.20064566929133859"/>
         </c:manualLayout>
@@ -3603,7 +3603,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3620,8 +3620,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1504089142904135"/>
-          <c:y val="5.6140360786186914E-2"/>
+          <c:x val="0.15040891429041353"/>
+          <c:y val="5.6140360786186894E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -3848,11 +3848,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="118819840"/>
-        <c:axId val="118830208"/>
+        <c:axId val="113393024"/>
+        <c:axId val="113399296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118819840"/>
+        <c:axId val="113393024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3885,20 +3885,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.51759791122715382"/>
+              <c:x val="0.51759791122715371"/>
               <c:y val="0.89855157828827881"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118830208"/>
+        <c:crossAx val="113399296"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118830208"/>
+        <c:axId val="113399296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3928,11 +3928,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118819840"/>
+        <c:crossAx val="113393024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3955,9 +3954,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17225413402959094"/>
-          <c:y val="0.10302858586191377"/>
-          <c:w val="0.19067014795474319"/>
-          <c:h val="0.19630870723258736"/>
+          <c:y val="0.10302858586191378"/>
+          <c:w val="0.19067014795474316"/>
+          <c:h val="0.19630870723258734"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3983,7 +3982,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4001,8 +4000,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041356"/>
-          <c:y val="5.614036078618688E-2"/>
+          <c:x val="0.15040891429041359"/>
+          <c:y val="5.6140360786186866E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -4339,392 +4338,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="118966912"/>
-        <c:axId val="118883072"/>
+        <c:axId val="113675264"/>
+        <c:axId val="113460352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118966912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="0" i="1"/>
-                  <a:t>x</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.5175979112271536"/>
-              <c:y val="0.89855157828827881"/>
-            </c:manualLayout>
-          </c:layout>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118883072"/>
-        <c:crossesAt val="-100"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="118883072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="-1"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="0" i="1"/>
-                  <a:t>y</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118966912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000">
-              <a:tint val="75000"/>
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:sysClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16178516482504934"/>
-          <c:y val="6.7163083199324819E-2"/>
-          <c:w val="0.59148903781321749"/>
-          <c:h val="8.9516754360555423E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15040891429041361"/>
-          <c:y val="5.6140360786186859E-2"/>
-          <c:w val="0.77380344428225845"/>
-          <c:h val="0.72085707899873264"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4'!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y = 0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4'!$B$7:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4'!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f(x)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4'!$E$7:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.60000000000000053</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.69999999999999973</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="118896128"/>
-        <c:axId val="118898048"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="118896128"/>
+        <c:axId val="113675264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4764,13 +4382,393 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118898048"/>
+        <c:crossAx val="113460352"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118898048"/>
+        <c:axId val="113460352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113675264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16178516482504934"/>
+          <c:y val="6.7163083199324833E-2"/>
+          <c:w val="0.59148903781321749"/>
+          <c:h val="8.9516754360555423E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040891429041364"/>
+          <c:y val="5.6140360786186852E-2"/>
+          <c:w val="0.77380344428225845"/>
+          <c:h val="0.72085707899873264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4'!$B$7:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4'!$E$7:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.60000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="113481216"/>
+        <c:axId val="113483136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="113481216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51759791122715348"/>
+              <c:y val="0.89855157828827881"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113483136"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="113483136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -4800,11 +4798,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118896128"/>
+        <c:crossAx val="113481216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4828,7 +4825,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.16178516482504934"/>
           <c:y val="6.7163083199324833E-2"/>
-          <c:w val="0.36461282653804405"/>
+          <c:w val="0.36461282653804411"/>
           <c:h val="8.9516754360555423E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4855,7 +4852,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4873,10 +4870,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041356"/>
-          <c:y val="5.614036078618688E-2"/>
+          <c:x val="0.15040891429041359"/>
+          <c:y val="8.5897077679974634E-2"/>
           <c:w val="0.77380344428225845"/>
-          <c:h val="0.72085707899873264"/>
+          <c:h val="0.63158640815712075"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5161,11 +5158,59 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="119021952"/>
-        <c:axId val="119023872"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>x-f(x)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5'!$A$21:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5'!$C$21:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.0624999999999816E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="113742208"/>
+        <c:axId val="113744896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119021952"/>
+        <c:axId val="113742208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5198,24 +5243,24 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.5175979112271536"/>
+              <c:x val="0.51759791122715348"/>
               <c:y val="0.89855157828827881"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119023872"/>
+        <c:crossAx val="113744896"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119023872"/>
+        <c:axId val="113744896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4"/>
-          <c:min val="-3"/>
+          <c:max val="2"/>
+          <c:min val="-2"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines>
@@ -5245,7 +5290,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119021952"/>
+        <c:crossAx val="113742208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5263,6 +5308,11 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -5278,7 +5328,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5356,13 +5406,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>7328</xdr:rowOff>
+      <xdr:rowOff>7329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9961,10 +10011,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10147,7 +10197,7 @@
         <v>7.2050000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>3.45</v>
       </c>
@@ -10155,12 +10205,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>3.5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f>A21</f>
+        <v>3.5</v>
+      </c>
+      <c r="C22">
+        <f>$B$1*($A22-$B$2)*($A22-$B$3)*($A22-$B$4)</f>
+        <v>-5.0624999999999816E-2</v>
       </c>
     </row>
   </sheetData>

--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="5" r:id="rId5"/>
     <sheet name="5" sheetId="6" r:id="rId6"/>
+    <sheet name="6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
   <si>
     <t>Mpa</t>
   </si>
@@ -251,6 +252,15 @@
   <si>
     <t>S</t>
   </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +373,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236087"/>
+          <c:x val="0.36134811309236092"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -1673,11 +1683,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="112923776"/>
-        <c:axId val="112926080"/>
+        <c:axId val="100869248"/>
+        <c:axId val="100871552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112923776"/>
+        <c:axId val="100869248"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1713,13 +1723,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112926080"/>
+        <c:crossAx val="100871552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112926080"/>
+        <c:axId val="100871552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1758,14 +1768,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776933"/>
+              <c:y val="0.41705721784776939"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112923776"/>
-        <c:crossesAt val="1.0000000000000015E-4"/>
+        <c:crossAx val="100869248"/>
+        <c:crossesAt val="1.0000000000000018E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1789,7 +1799,7 @@
           <c:x val="0.73873283123296651"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725337"/>
+          <c:h val="0.27214418197725343"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1815,7 +1825,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1832,7 +1842,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236098"/>
+          <c:x val="0.36134811309236103"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -3142,11 +3152,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="113051520"/>
-        <c:axId val="113123328"/>
+        <c:axId val="101001088"/>
+        <c:axId val="101068800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113051520"/>
+        <c:axId val="101001088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,13 +3191,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113123328"/>
+        <c:crossAx val="101068800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113123328"/>
+        <c:axId val="101068800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3224,14 +3234,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776945"/>
+              <c:y val="0.4170572178477695"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113051520"/>
-        <c:crossesAt val="1.0000000000000022E-4"/>
+        <c:crossAx val="101001088"/>
+        <c:crossesAt val="1.0000000000000025E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3252,8 +3262,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73136634659194166"/>
-          <c:y val="7.2816797900262631E-2"/>
+          <c:x val="0.73136634659194155"/>
+          <c:y val="7.2816797900262659E-2"/>
           <c:w val="0.20762436960727645"/>
           <c:h val="0.3210330708661418"/>
         </c:manualLayout>
@@ -3281,7 +3291,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3299,10 +3309,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15007020816612812"/>
-          <c:y val="5.3916760404949415E-2"/>
+          <c:x val="0.15007020816612818"/>
+          <c:y val="5.3916760404949429E-2"/>
           <c:w val="0.78932373122781141"/>
-          <c:h val="0.73934060165556303"/>
+          <c:h val="0.73934060165556315"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3477,11 +3487,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="113165056"/>
-        <c:axId val="113166976"/>
+        <c:axId val="101106432"/>
+        <c:axId val="101108352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113165056"/>
+        <c:axId val="101106432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -3514,14 +3524,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113166976"/>
+        <c:crossAx val="101108352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113166976"/>
+        <c:axId val="101108352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3552,7 +3562,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113165056"/>
+        <c:crossAx val="101106432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3574,8 +3584,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67361510391110579"/>
-          <c:y val="0.38856605424321983"/>
+          <c:x val="0.67361510391110591"/>
+          <c:y val="0.38856605424321988"/>
           <c:w val="0.23248820561452921"/>
           <c:h val="0.20064566929133859"/>
         </c:manualLayout>
@@ -3603,7 +3613,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3620,8 +3630,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041353"/>
-          <c:y val="5.6140360786186894E-2"/>
+          <c:x val="0.15040891429041356"/>
+          <c:y val="5.614036078618688E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -3848,11 +3858,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="113393024"/>
-        <c:axId val="113399296"/>
+        <c:axId val="88083840"/>
+        <c:axId val="88094208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113393024"/>
+        <c:axId val="88083840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3885,20 +3895,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.51759791122715371"/>
+              <c:x val="0.5175979112271536"/>
               <c:y val="0.89855157828827881"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113399296"/>
+        <c:crossAx val="88094208"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113399296"/>
+        <c:axId val="88094208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3931,7 +3941,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113393024"/>
+        <c:crossAx val="88083840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3954,9 +3964,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17225413402959094"/>
-          <c:y val="0.10302858586191378"/>
-          <c:w val="0.19067014795474316"/>
-          <c:h val="0.19630870723258734"/>
+          <c:y val="0.1030285858619138"/>
+          <c:w val="0.19067014795474313"/>
+          <c:h val="0.19630870723258731"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3982,7 +3992,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4000,8 +4010,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041359"/>
-          <c:y val="5.6140360786186866E-2"/>
+          <c:x val="0.15040891429041361"/>
+          <c:y val="5.6140360786186859E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -4338,11 +4348,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="113675264"/>
-        <c:axId val="113460352"/>
+        <c:axId val="101097472"/>
+        <c:axId val="88175744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113675264"/>
+        <c:axId val="101097472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4382,13 +4392,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113460352"/>
+        <c:crossAx val="88175744"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113460352"/>
+        <c:axId val="88175744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4421,7 +4431,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113675264"/>
+        <c:crossAx val="101097472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4472,7 +4482,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4490,8 +4500,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041364"/>
-          <c:y val="5.6140360786186852E-2"/>
+          <c:x val="0.15040891429041367"/>
+          <c:y val="5.6140360786186845E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -4718,11 +4728,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="113481216"/>
-        <c:axId val="113483136"/>
+        <c:axId val="88196608"/>
+        <c:axId val="88198528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113481216"/>
+        <c:axId val="88196608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4762,13 +4772,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113483136"/>
+        <c:crossAx val="88198528"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113483136"/>
+        <c:axId val="88198528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -4801,7 +4811,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113481216"/>
+        <c:crossAx val="88196608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4825,7 +4835,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.16178516482504934"/>
           <c:y val="6.7163083199324833E-2"/>
-          <c:w val="0.36461282653804411"/>
+          <c:w val="0.36461282653804417"/>
           <c:h val="8.9516754360555423E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4852,7 +4862,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4870,10 +4880,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041359"/>
-          <c:y val="8.5897077679974634E-2"/>
+          <c:x val="0.15040891429041361"/>
+          <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
-          <c:h val="0.63158640815712075"/>
+          <c:h val="0.63158640815712064"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5206,11 +5216,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="113742208"/>
-        <c:axId val="113744896"/>
+        <c:axId val="100448512"/>
+        <c:axId val="100446592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113742208"/>
+        <c:axId val="100448512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5250,13 +5260,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113744896"/>
+        <c:crossAx val="100446592"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113744896"/>
+        <c:axId val="100446592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -5290,7 +5300,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113742208"/>
+        <c:crossAx val="100448512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5328,7 +5338,523 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040891429041367"/>
+          <c:y val="8.5897077679974648E-2"/>
+          <c:w val="0.77380344428225845"/>
+          <c:h val="0.63158640815712053"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5'!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5'!$B$6:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6'!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6'!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.52649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53599999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.39600000000000013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9215000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.8640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2735000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>root</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6'!$A$18:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6'!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>x-f(x)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6'!$A$21:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6'!$C$21:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53599999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>x2-f(x2)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6'!$A$24:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6'!$C$24:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2735000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="102555648"/>
+        <c:axId val="102557568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="102555648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51759791122715348"/>
+              <c:y val="0.89855157828827881"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102557568"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="102557568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102555648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5400,6 +5926,41 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10013,7 +10574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -10235,4 +10796,322 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>2.34</v>
+      </c>
+      <c r="E3">
+        <f>$B$1</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <f>$B$1*(-$B$2-$B$3-$B$4)</f>
+        <v>-0.25850000000000001</v>
+      </c>
+      <c r="G3">
+        <f>$B$1*(-$B$2*-$B$3-$B$3*-$B$4-$B$2*-$B$4)</f>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H3">
+        <f>$B$1*-$B$2*-$B$3*-$B$4</f>
+        <v>0.52649999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>$B$1*($A6-$B$2)*($A6-$B$3)*($A6-$B$4)</f>
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="D6">
+        <f>$E$3*$A6^3+$F$3*$A6^2+$G$3*$A6+$H$3</f>
+        <v>0.52649999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C16" si="0">$B$1*($A7-$B$2)*($A7-$B$3)*($A7-$B$4)</f>
+        <v>0.53599999999999992</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D16" si="1">$E$3*$A7^3+$F$3*$A7^2+$G$3*$A7+$H$3</f>
+        <v>0.53599999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.17849999999999994</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.17849999999999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-0.39600000000000013</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-0.39600000000000024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-1.0375000000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-1.0375000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-1.5960000000000003</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>-1.5960000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-1.9215000000000002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-1.9215000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-1.8640000000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-1.8639999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-1.2735000000000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-1.2734999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2.1065</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>2.1064999999999983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f>A21</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>$B$1*($A22-$B$2)*($A22-$B$3)*($A22-$B$4)</f>
+        <v>0.53599999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f>A24</f>
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <f>$B$1*($A25-$B$2)*($A25-$B$3)*($A25-$B$4)</f>
+        <v>-1.2735000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -373,7 +373,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236092"/>
+          <c:x val="0.36134811309236098"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -1683,11 +1683,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="100869248"/>
-        <c:axId val="100871552"/>
+        <c:axId val="97138176"/>
+        <c:axId val="97148928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100869248"/>
+        <c:axId val="97138176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1723,13 +1723,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100871552"/>
+        <c:crossAx val="97148928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100871552"/>
+        <c:axId val="97148928"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1768,14 +1768,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776939"/>
+              <c:y val="0.41705721784776945"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100869248"/>
-        <c:crossesAt val="1.0000000000000018E-4"/>
+        <c:crossAx val="97138176"/>
+        <c:crossesAt val="1.0000000000000022E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1799,7 +1799,7 @@
           <c:x val="0.73873283123296651"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725343"/>
+          <c:h val="0.27214418197725354"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1825,7 +1825,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1842,7 +1842,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236103"/>
+          <c:x val="0.36134811309236115"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -3152,11 +3152,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101001088"/>
-        <c:axId val="101068800"/>
+        <c:axId val="97188096"/>
+        <c:axId val="99955072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101001088"/>
+        <c:axId val="97188096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3191,13 +3191,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101068800"/>
+        <c:crossAx val="99955072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101068800"/>
+        <c:axId val="99955072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,14 +3234,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.4170572178477695"/>
+              <c:y val="0.41705721784776956"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101001088"/>
-        <c:crossesAt val="1.0000000000000025E-4"/>
+        <c:crossAx val="97188096"/>
+        <c:crossesAt val="1.0000000000000026E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3262,8 +3262,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73136634659194155"/>
-          <c:y val="7.2816797900262659E-2"/>
+          <c:x val="0.73136634659194144"/>
+          <c:y val="7.2816797900262686E-2"/>
           <c:w val="0.20762436960727645"/>
           <c:h val="0.3210330708661418"/>
         </c:manualLayout>
@@ -3291,7 +3291,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3309,10 +3309,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15007020816612818"/>
-          <c:y val="5.3916760404949429E-2"/>
+          <c:x val="0.15007020816612823"/>
+          <c:y val="5.3916760404949436E-2"/>
           <c:w val="0.78932373122781141"/>
-          <c:h val="0.73934060165556315"/>
+          <c:h val="0.73934060165556326"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3487,11 +3487,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101106432"/>
-        <c:axId val="101108352"/>
+        <c:axId val="99996800"/>
+        <c:axId val="99998720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101106432"/>
+        <c:axId val="99996800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -3524,14 +3524,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101108352"/>
+        <c:crossAx val="99998720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101108352"/>
+        <c:axId val="99998720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3562,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101106432"/>
+        <c:crossAx val="99996800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3584,7 +3584,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67361510391110591"/>
+          <c:x val="0.67361510391110602"/>
           <c:y val="0.38856605424321988"/>
           <c:w val="0.23248820561452921"/>
           <c:h val="0.20064566929133859"/>
@@ -3613,7 +3613,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3630,8 +3630,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041356"/>
-          <c:y val="5.614036078618688E-2"/>
+          <c:x val="0.15040891429041359"/>
+          <c:y val="5.6140360786186866E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -3858,501 +3858,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88083840"/>
-        <c:axId val="88094208"/>
+        <c:axId val="100089856"/>
+        <c:axId val="100091776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88083840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="0" i="1"/>
-                  <a:t>x</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.5175979112271536"/>
-              <c:y val="0.89855157828827881"/>
-            </c:manualLayout>
-          </c:layout>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88094208"/>
-        <c:crossesAt val="-100"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="88094208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="-2"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="0" i="1"/>
-                  <a:t>y</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88083840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000">
-              <a:tint val="75000"/>
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:sysClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17225413402959094"/>
-          <c:y val="0.1030285858619138"/>
-          <c:w val="0.19067014795474313"/>
-          <c:h val="0.19630870723258731"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15040891429041361"/>
-          <c:y val="5.6140360786186859E-2"/>
-          <c:w val="0.77380344428225845"/>
-          <c:h val="0.72085707899873264"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4'!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y = 0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4'!$B$7:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>h(x)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4'!$C$7:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4'!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>g(x)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4'!$D$7:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="101097472"/>
-        <c:axId val="88175744"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="101097472"/>
+        <c:axId val="100089856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4392,13 +3902,503 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88175744"/>
+        <c:crossAx val="100091776"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88175744"/>
+        <c:axId val="100091776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100089856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17225413402959094"/>
+          <c:y val="0.10302858586191382"/>
+          <c:w val="0.1906701479547431"/>
+          <c:h val="0.19630870723258728"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040891429041364"/>
+          <c:y val="5.6140360786186852E-2"/>
+          <c:w val="0.77380344428225845"/>
+          <c:h val="0.72085707899873264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4'!$B$7:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>h(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4'!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4'!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="125291904"/>
+        <c:axId val="125281792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125291904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51759791122715348"/>
+              <c:y val="0.89855157828827881"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125281792"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125281792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4431,7 +4431,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101097472"/>
+        <c:crossAx val="125291904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4482,7 +4482,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4500,7 +4500,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041367"/>
+          <c:x val="0.15040891429041373"/>
           <c:y val="5.6140360786186845E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
@@ -4728,11 +4728,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88196608"/>
-        <c:axId val="88198528"/>
+        <c:axId val="125327232"/>
+        <c:axId val="125198336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88196608"/>
+        <c:axId val="125327232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4772,13 +4772,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88198528"/>
+        <c:crossAx val="125198336"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88198528"/>
+        <c:axId val="125198336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -4811,7 +4811,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88196608"/>
+        <c:crossAx val="125327232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4835,7 +4835,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.16178516482504934"/>
           <c:y val="6.7163083199324833E-2"/>
-          <c:w val="0.36461282653804417"/>
+          <c:w val="0.36461282653804422"/>
           <c:h val="8.9516754360555423E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4862,7 +4862,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4880,10 +4880,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041361"/>
+          <c:x val="0.15040891429041364"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
-          <c:h val="0.63158640815712064"/>
+          <c:h val="0.63158640815712053"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5216,11 +5216,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="100448512"/>
-        <c:axId val="100446592"/>
+        <c:axId val="125409536"/>
+        <c:axId val="125415808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100448512"/>
+        <c:axId val="125409536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5260,13 +5260,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100446592"/>
+        <c:crossAx val="125415808"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100446592"/>
+        <c:axId val="125415808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -5296,11 +5296,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100448512"/>
+        <c:crossAx val="125409536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5338,7 +5337,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5355,7 +5354,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041367"/>
+          <c:x val="0.15040891429041373"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.63158640815712053"/>
@@ -5364,228 +5363,8 @@
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5'!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y = 0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'5'!$A$6:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'5'!$B$6:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'6'!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f(x)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'6'!$A$6:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'6'!$C$6:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.52649999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53599999999999992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.39600000000000013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.0375000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.5960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.9215000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.8640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.2735000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1065</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>root</c:v>
           </c:tx>
@@ -5613,30 +5392,256 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$A$18:$A$19</c:f>
+              <c:f>'6'!$A$18:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$B$18:$B$19</c:f>
+              <c:f>'6'!$B$18:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5'!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5'!$B$6:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6'!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6'!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.52649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53599999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17849999999999988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.39600000000000024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5960000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9215000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.8639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1064999999999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5661,7 +5666,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$A$21:$A$22</c:f>
+              <c:f>'6'!$A$22:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5676,7 +5681,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$C$21:$C$22</c:f>
+              <c:f>'6'!$C$22:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5702,22 +5707,22 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$A$24:$A$25</c:f>
+              <c:f>'6'!$A$25:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$C$24:$C$25</c:f>
+              <c:f>'6'!$C$25:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5725,18 +5730,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2735000000000001</c:v>
+                  <c:v>-0.24023437500000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="102555648"/>
-        <c:axId val="102557568"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>x3-f(x3)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6'!$A$28:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6'!$C$28:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23813085937499998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="125586432"/>
+        <c:axId val="125592704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102555648"/>
+        <c:axId val="125586432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5776,13 +5829,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102557568"/>
+        <c:crossAx val="125592704"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102557568"/>
+        <c:axId val="125592704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -5816,7 +5869,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102555648"/>
+        <c:crossAx val="125586432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5854,9 +5907,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -5993,6 +6047,250 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31593</cdr:x>
+      <cdr:y>0.15193</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40992</cdr:x>
+      <cdr:y>0.30257</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1152525" y="259371"/>
+          <a:ext cx="342900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24543</cdr:x>
+      <cdr:y>0.15193</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.33943</cdr:x>
+      <cdr:y>0.30257</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="895350" y="259371"/>
+          <a:ext cx="342900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18799</cdr:x>
+      <cdr:y>0.46867</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28198</cdr:x>
+      <cdr:y>0.61931</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="685800" y="800100"/>
+          <a:ext cx="342900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10800,10 +11098,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11057,57 +11355,104 @@
         <f t="shared" si="1"/>
         <v>2.1064999999999983</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="G19">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <f>(A18+A19)/2</f>
+        <v>1.875</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <f>A18</f>
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <f>A21</f>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <f>A22</f>
         <v>1</v>
       </c>
-      <c r="C22">
-        <f>$B$1*($A22-$B$2)*($A22-$B$3)*($A22-$B$4)</f>
+      <c r="C23">
+        <f>$B$1*($A23-$B$2)*($A23-$B$3)*($A23-$B$4)</f>
         <v>0.53599999999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="C24">
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <f>A19</f>
+        <v>2.75</v>
+      </c>
+      <c r="C25">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <f>A24</f>
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <f>$B$1*($A25-$B$2)*($A25-$B$3)*($A25-$B$4)</f>
-        <v>-1.2735000000000001</v>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <f>A25</f>
+        <v>2.75</v>
+      </c>
+      <c r="C26">
+        <f>$B$1*($A26-$B$2)*($A26-$B$3)*($A26-$B$4)</f>
+        <v>-0.24023437500000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <f>A20</f>
+        <v>1.875</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <f>A28</f>
+        <v>1.875</v>
+      </c>
+      <c r="C29">
+        <f>$B$1*($A29-$B$2)*($A29-$B$3)*($A29-$B$4)</f>
+        <v>0.23813085937499998</v>
       </c>
     </row>
   </sheetData>

--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="4" sheetId="5" r:id="rId5"/>
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
+    <sheet name="7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>Mpa</t>
   </si>
@@ -261,6 +262,18 @@
   <si>
     <t>c1</t>
   </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>(y - n) / m</t>
+  </si>
+  <si>
+    <t>xn+1</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +386,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236098"/>
+          <c:x val="0.36134811309236103"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -1683,11 +1696,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="97138176"/>
-        <c:axId val="97148928"/>
+        <c:axId val="112997888"/>
+        <c:axId val="113008640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97138176"/>
+        <c:axId val="112997888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1723,13 +1736,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97148928"/>
+        <c:crossAx val="113008640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97148928"/>
+        <c:axId val="113008640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1768,14 +1781,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776945"/>
+              <c:y val="0.4170572178477695"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97138176"/>
-        <c:crossesAt val="1.0000000000000022E-4"/>
+        <c:crossAx val="112997888"/>
+        <c:crossesAt val="1.0000000000000025E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1799,7 +1812,7 @@
           <c:x val="0.73873283123296651"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725354"/>
+          <c:h val="0.27214418197725365"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1825,7 +1838,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1842,7 +1855,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236115"/>
+          <c:x val="0.36134811309236126"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -3152,11 +3165,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="97188096"/>
-        <c:axId val="99955072"/>
+        <c:axId val="113047808"/>
+        <c:axId val="113521024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97188096"/>
+        <c:axId val="113047808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3191,13 +3204,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99955072"/>
+        <c:crossAx val="113521024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99955072"/>
+        <c:axId val="113521024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,14 +3247,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776956"/>
+              <c:y val="0.41705721784776961"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97188096"/>
-        <c:crossesAt val="1.0000000000000026E-4"/>
+        <c:crossAx val="113047808"/>
+        <c:crossesAt val="1.0000000000000029E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3262,8 +3275,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73136634659194144"/>
-          <c:y val="7.2816797900262686E-2"/>
+          <c:x val="0.73136634659194133"/>
+          <c:y val="7.2816797900262714E-2"/>
           <c:w val="0.20762436960727645"/>
           <c:h val="0.3210330708661418"/>
         </c:manualLayout>
@@ -3291,7 +3304,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3309,10 +3322,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15007020816612823"/>
-          <c:y val="5.3916760404949436E-2"/>
+          <c:x val="0.15007020816612826"/>
+          <c:y val="5.3916760404949443E-2"/>
           <c:w val="0.78932373122781141"/>
-          <c:h val="0.73934060165556326"/>
+          <c:h val="0.73934060165556348"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3487,11 +3500,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="99996800"/>
-        <c:axId val="99998720"/>
+        <c:axId val="113562752"/>
+        <c:axId val="113564672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99996800"/>
+        <c:axId val="113562752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -3524,14 +3537,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99998720"/>
+        <c:crossAx val="113564672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99998720"/>
+        <c:axId val="113564672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3575,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99996800"/>
+        <c:crossAx val="113562752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3584,7 +3597,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67361510391110602"/>
+          <c:x val="0.67361510391110613"/>
           <c:y val="0.38856605424321988"/>
           <c:w val="0.23248820561452921"/>
           <c:h val="0.20064566929133859"/>
@@ -3613,7 +3626,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3630,8 +3643,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041359"/>
-          <c:y val="5.6140360786186866E-2"/>
+          <c:x val="0.15040891429041361"/>
+          <c:y val="5.6140360786186859E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -3858,11 +3871,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="100089856"/>
-        <c:axId val="100091776"/>
+        <c:axId val="113721344"/>
+        <c:axId val="113723264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100089856"/>
+        <c:axId val="113721344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3902,13 +3915,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100091776"/>
+        <c:crossAx val="113723264"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100091776"/>
+        <c:axId val="113723264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3941,7 +3954,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100089856"/>
+        <c:crossAx val="113721344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3964,9 +3977,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17225413402959094"/>
-          <c:y val="0.10302858586191382"/>
-          <c:w val="0.1906701479547431"/>
-          <c:h val="0.19630870723258728"/>
+          <c:y val="0.10302858586191384"/>
+          <c:w val="0.19067014795474307"/>
+          <c:h val="0.19630870723258725"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3992,7 +4005,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4010,8 +4023,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041364"/>
-          <c:y val="5.6140360786186852E-2"/>
+          <c:x val="0.15040891429041367"/>
+          <c:y val="5.6140360786186845E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -4348,11 +4361,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="125291904"/>
-        <c:axId val="125281792"/>
+        <c:axId val="114019712"/>
+        <c:axId val="114009600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125291904"/>
+        <c:axId val="114019712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4392,13 +4405,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125281792"/>
+        <c:crossAx val="114009600"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125281792"/>
+        <c:axId val="114009600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4431,7 +4444,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125291904"/>
+        <c:crossAx val="114019712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4482,7 +4495,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4500,7 +4513,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041373"/>
+          <c:x val="0.15040891429041375"/>
           <c:y val="5.6140360786186845E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
@@ -4728,11 +4741,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="125327232"/>
-        <c:axId val="125198336"/>
+        <c:axId val="114055040"/>
+        <c:axId val="113926144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125327232"/>
+        <c:axId val="114055040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4772,13 +4785,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125198336"/>
+        <c:crossAx val="113926144"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125198336"/>
+        <c:axId val="113926144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -4811,7 +4824,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125327232"/>
+        <c:crossAx val="114055040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4835,7 +4848,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.16178516482504934"/>
           <c:y val="6.7163083199324833E-2"/>
-          <c:w val="0.36461282653804422"/>
+          <c:w val="0.36461282653804428"/>
           <c:h val="8.9516754360555423E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4862,7 +4875,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4880,7 +4893,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041364"/>
+          <c:x val="0.15040891429041367"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.63158640815712053"/>
@@ -5216,11 +5229,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="125409536"/>
-        <c:axId val="125415808"/>
+        <c:axId val="114141440"/>
+        <c:axId val="114147712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125409536"/>
+        <c:axId val="114141440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5260,13 +5273,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125415808"/>
+        <c:crossAx val="114147712"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125415808"/>
+        <c:axId val="114147712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -5299,7 +5312,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125409536"/>
+        <c:crossAx val="114141440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5337,7 +5350,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5354,7 +5367,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041373"/>
+          <c:x val="0.15040891429041375"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.63158640815712053"/>
@@ -5785,11 +5798,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="125586432"/>
-        <c:axId val="125592704"/>
+        <c:axId val="114327552"/>
+        <c:axId val="114329472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125586432"/>
+        <c:axId val="114327552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5829,13 +5842,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125592704"/>
+        <c:crossAx val="114329472"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125592704"/>
+        <c:axId val="114329472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -5869,7 +5882,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125586432"/>
+        <c:crossAx val="114327552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5907,7 +5920,882 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040891429041381"/>
+          <c:y val="8.5897077679974648E-2"/>
+          <c:w val="0.77380344428225845"/>
+          <c:h val="0.68838320636384265"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'7'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7'!$A$7:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7'!$B$7:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'7'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7'!$A$7:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7'!$D$7:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.5680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6644000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3824000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78199999999999981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.6800000000000201E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.329600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.6036000000000015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.8960000000000026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.1468000000000025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.2960000000000012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.2836000000000016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.0496000000000034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.5340000000000042</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.6768000000000054</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.4180000000000081</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.6976000000000067</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.4556000000000093</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.6320000000000068</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1668000000000025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.773159728050814E-15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9283999999999923</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.6783999999999946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.309999999999986</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.883199999999992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.457999999999974</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37.094399999999979</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.852399999999989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.79199999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.973200000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83.455999999999975</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>98.300399999999982</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>114.56639999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132.31399999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>151.60319999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>172.49399999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>195.04639999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>219.32040000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>245.376</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>273.27320000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>303.07199999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>x1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7'!$F$20:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.0099453621187848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0099453621187848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7'!$G$20:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.6436912588588877E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>y1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7'!$F$24:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.0099453621187848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9208324045726752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7'!$G$24:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-8.6436912588588877E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>x1 dot</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7'!$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0099453621187848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7'!$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="103928960"/>
+        <c:axId val="103930880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103928960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.03"/>
+          <c:min val="3.9"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51759791122715348"/>
+              <c:y val="0.89855157828827881"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="103930880"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3.0000000000000002E-2"/>
+        <c:minorUnit val="1.5000000000000003E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="103930880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000004E-2"/>
+          <c:min val="-0.1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6274884699464785E-2"/>
+              <c:y val="0.26279594705904835"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103928960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -6285,6 +7173,339 @@
               <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28982</cdr:x>
+      <cdr:y>0.09294</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38381</cdr:x>
+      <cdr:y>0.1975</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1057275" y="228600"/>
+          <a:ext cx="342882" cy="257168"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79896</cdr:x>
+      <cdr:y>0.09294</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89295</cdr:x>
+      <cdr:y>0.1975</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2914650" y="228600"/>
+          <a:ext cx="342882" cy="257168"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66319</cdr:x>
+      <cdr:y>0.61573</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75718</cdr:x>
+      <cdr:y>0.72028</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2419350" y="1514475"/>
+          <a:ext cx="342882" cy="257168"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" baseline="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -11100,7 +12321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -11459,4 +12680,872 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>3.92</v>
+      </c>
+      <c r="E4">
+        <f>$B$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="F4">
+        <f>$B$2*(-$B$3-$B$4-$B$5)</f>
+        <v>-0.21920000000000003</v>
+      </c>
+      <c r="G4">
+        <f>$B$2*(-$B$3*-$B$4-$B$4*-$B$5-$B$3*-$B$5)</f>
+        <v>0.30560000000000004</v>
+      </c>
+      <c r="H4">
+        <f>$B$2*-$B$3*-$B$4*-$B$5</f>
+        <v>1.5680000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <f>E4*3</f>
+        <v>0.03</v>
+      </c>
+      <c r="G5">
+        <f>F4*2</f>
+        <v>-0.43840000000000007</v>
+      </c>
+      <c r="H5">
+        <f>G4</f>
+        <v>0.30560000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>$B$2*($A7-$B$3)*($A7-$B$4)*($A7-$B$5)</f>
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="D7">
+        <f>$E$4*$A7^3+$F$4*$A7^2+$G$4*$A7+$H$4</f>
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <f>A7+$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C47" si="0">$B$2*($A8-$B$3)*($A8-$B$4)*($A8-$B$5)</f>
+        <v>1.6643999999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D47" si="1">$E$4*$A8^3+$F$4*$A8^2+$G$4*$A8+$H$4</f>
+        <v>1.6644000000000001</v>
+      </c>
+      <c r="E8">
+        <v>5.0638297872340416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" ref="A9:A17" si="2">A8+$B$1</f>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.3823999999999999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.3824000000000001</v>
+      </c>
+      <c r="E9">
+        <v>4.0099453621187848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.78199999999999981</v>
+      </c>
+      <c r="E10">
+        <v>3.9208324045726752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-7.6800000000000063E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>-7.6800000000000201E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-1.1340000000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-1.1339999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-2.3296000000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-2.329600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-3.6036000000000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-3.6036000000000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-4.8960000000000008</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-4.8960000000000026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-6.1467999999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-6.1468000000000025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-7.2960000000000003</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-7.2960000000000012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <f t="shared" ref="A18:A24" si="3">A17+$B$1</f>
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-8.2835999999999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-8.2836000000000016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-9.0496000000000016</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-9.0496000000000034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-9.5339999999999989</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-9.5340000000000042</v>
+      </c>
+      <c r="F20">
+        <f>E9</f>
+        <v>4.0099453621187848</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-9.6768000000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-9.6768000000000054</v>
+      </c>
+      <c r="F21">
+        <f>F20</f>
+        <v>4.0099453621187848</v>
+      </c>
+      <c r="G21">
+        <f>$E$4*$F21^3+$F$4*$F21^2+$G$4*$F21+$H$4</f>
+        <v>-8.6436912588588877E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-9.418000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-9.4180000000000081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-8.6975999999999996</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>-8.6976000000000067</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f>$G$24-$J$24*$F$24</f>
+        <v>3.8030905623707714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-7.4555999999999996</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>-7.4556000000000093</v>
+      </c>
+      <c r="F24">
+        <f>F21</f>
+        <v>4.0099453621187848</v>
+      </c>
+      <c r="G24">
+        <f>G21</f>
+        <v>-8.6436912588588877E-2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24">
+        <f>$F$5*$F24^2+$G$5*$F24+$H$5</f>
+        <v>-0.9699701925375368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <f t="shared" ref="A25:A27" si="4">A24+$B$1</f>
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-5.6320000000000006</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>-5.6320000000000068</v>
+      </c>
+      <c r="F25">
+        <f>($G$25-$J$23)/$J$24</f>
+        <v>3.9208324045726752</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-3.1667999999999998</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>-3.1668000000000025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>-5.773159728050814E-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <f t="shared" ref="A28:A34" si="5">A27+$B$1</f>
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3.9283999999999999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>3.9283999999999923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>8.6783999999999981</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>8.6783999999999946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>14.309999999999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>14.309999999999986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>20.883199999999999</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>20.883199999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>28.458000000000002</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>28.457999999999974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>37.0944</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>37.094399999999979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>46.852399999999996</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>46.852399999999989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <f t="shared" ref="A35:A46" si="6">A34+$B$1</f>
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>57.791999999999994</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>57.79199999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>69.973199999999991</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>69.973200000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>83.455999999999989</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>83.455999999999975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>98.300399999999996</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>98.300399999999982</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>114.5664</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>114.56639999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>132.31400000000002</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>132.31399999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>151.60319999999999</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>151.60319999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>172.494</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>172.49399999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>195.04640000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>195.04639999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>219.32039999999998</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>219.32040000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>245.376</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>245.376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>273.27319999999997</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>273.27320000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <f t="shared" ref="A47" si="7">A46+$B$1</f>
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>303.072</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>303.07199999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
     <sheet name="7" sheetId="8" r:id="rId8"/>
+    <sheet name="8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
   <si>
     <t>Mpa</t>
   </si>
@@ -386,7 +387,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236103"/>
+          <c:x val="0.36134811309236115"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -1696,11 +1697,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="112997888"/>
-        <c:axId val="113008640"/>
+        <c:axId val="78461568"/>
+        <c:axId val="78472320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112997888"/>
+        <c:axId val="78461568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1736,13 +1737,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113008640"/>
+        <c:crossAx val="78472320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113008640"/>
+        <c:axId val="78472320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1781,14 +1782,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.4170572178477695"/>
+              <c:y val="0.41705721784776956"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112997888"/>
-        <c:crossesAt val="1.0000000000000025E-4"/>
+        <c:crossAx val="78461568"/>
+        <c:crossesAt val="1.0000000000000026E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1812,7 +1813,7 @@
           <c:x val="0.73873283123296651"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725365"/>
+          <c:h val="0.27214418197725376"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1838,7 +1839,898 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040891429041389"/>
+          <c:y val="8.5897077679974648E-2"/>
+          <c:w val="0.77380344428225845"/>
+          <c:h val="0.68838320636384265"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8'!$A$7:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8'!$C$7:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.8079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0063999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8143999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49919999999999959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50400000000000045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6576000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.9016000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.176000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.4208000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.5760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.5815999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.377600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.1008000000000013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.9080000000000013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.2655999999999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.1135999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.3920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.0407999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7904000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3903999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.2592</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.648000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.086400000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.634399999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.351999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.299199999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.122399999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>112.11840000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>129.58400000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>148.57920000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>169.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>191.39840000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>215.34240000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>241.05600000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>268.59920000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>298.03200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8'!$A$7:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8'!$B$7:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>x1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8'!$G$20:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8'!$H$20:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2919999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8'!$G$24:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.560395574452329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8'!$H$24:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2919999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0916642034678041E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>x2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8'!$J$20:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.560395574452329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.560395574452329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8'!$K$20:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0916642034678041E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="138718208"/>
+        <c:axId val="128009344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="138718208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="2.8"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51759791122715348"/>
+              <c:y val="0.89855157828827881"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="128009344"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="128009344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-1.5"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" i="1"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6274884699464798E-2"/>
+              <c:y val="0.26279594705904835"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138718208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1855,7 +2747,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236126"/>
+          <c:x val="0.36134811309236137"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -3165,11 +4057,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="113047808"/>
-        <c:axId val="113521024"/>
+        <c:axId val="91349376"/>
+        <c:axId val="78587392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113047808"/>
+        <c:axId val="91349376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3204,13 +4096,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113521024"/>
+        <c:crossAx val="78587392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113521024"/>
+        <c:axId val="78587392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,14 +4139,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776961"/>
+              <c:y val="0.41705721784776967"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113047808"/>
-        <c:crossesAt val="1.0000000000000029E-4"/>
+        <c:crossAx val="91349376"/>
+        <c:crossesAt val="1.0000000000000032E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3275,8 +4167,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73136634659194133"/>
-          <c:y val="7.2816797900262714E-2"/>
+          <c:x val="0.73136634659194122"/>
+          <c:y val="7.2816797900262728E-2"/>
           <c:w val="0.20762436960727645"/>
           <c:h val="0.3210330708661418"/>
         </c:manualLayout>
@@ -3304,7 +4196,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3322,10 +4214,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15007020816612826"/>
-          <c:y val="5.3916760404949443E-2"/>
+          <c:x val="0.15007020816612829"/>
+          <c:y val="5.391676040494945E-2"/>
           <c:w val="0.78932373122781141"/>
-          <c:h val="0.73934060165556348"/>
+          <c:h val="0.7393406016555637"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3500,11 +4392,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="113562752"/>
-        <c:axId val="113564672"/>
+        <c:axId val="91341184"/>
+        <c:axId val="78745984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113562752"/>
+        <c:axId val="91341184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -3537,14 +4429,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113564672"/>
+        <c:crossAx val="78745984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113564672"/>
+        <c:axId val="78745984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,7 +4467,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113562752"/>
+        <c:crossAx val="91341184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3597,7 +4489,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67361510391110613"/>
+          <c:x val="0.67361510391110624"/>
           <c:y val="0.38856605424321988"/>
           <c:w val="0.23248820561452921"/>
           <c:h val="0.20064566929133859"/>
@@ -3626,7 +4518,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3643,8 +4535,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041361"/>
-          <c:y val="5.6140360786186859E-2"/>
+          <c:x val="0.15040891429041364"/>
+          <c:y val="5.6140360786186852E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -3871,11 +4763,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="113721344"/>
-        <c:axId val="113723264"/>
+        <c:axId val="90731648"/>
+        <c:axId val="90733568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113721344"/>
+        <c:axId val="90731648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3915,13 +4807,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113723264"/>
+        <c:crossAx val="90733568"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113723264"/>
+        <c:axId val="90733568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3954,7 +4846,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113721344"/>
+        <c:crossAx val="90731648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3977,9 +4869,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17225413402959094"/>
-          <c:y val="0.10302858586191384"/>
-          <c:w val="0.19067014795474307"/>
-          <c:h val="0.19630870723258725"/>
+          <c:y val="0.10302858586191387"/>
+          <c:w val="0.19067014795474305"/>
+          <c:h val="0.19630870723258723"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -4005,7 +4897,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4023,7 +4915,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041367"/>
+          <c:x val="0.15040891429041373"/>
           <c:y val="5.6140360786186845E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
@@ -4361,11 +5253,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="114019712"/>
-        <c:axId val="114009600"/>
+        <c:axId val="79061760"/>
+        <c:axId val="79063680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114019712"/>
+        <c:axId val="79061760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4405,13 +5297,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114009600"/>
+        <c:crossAx val="79063680"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114009600"/>
+        <c:axId val="79063680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4444,7 +5336,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114019712"/>
+        <c:crossAx val="79061760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4495,7 +5387,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4513,7 +5405,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041375"/>
+          <c:x val="0.15040891429041378"/>
           <c:y val="5.6140360786186845E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
@@ -4741,11 +5633,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="114055040"/>
-        <c:axId val="113926144"/>
+        <c:axId val="78994432"/>
+        <c:axId val="79000704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114055040"/>
+        <c:axId val="78994432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4785,13 +5677,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113926144"/>
+        <c:crossAx val="79000704"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113926144"/>
+        <c:axId val="79000704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -4824,7 +5716,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114055040"/>
+        <c:crossAx val="78994432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4848,7 +5740,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.16178516482504934"/>
           <c:y val="6.7163083199324833E-2"/>
-          <c:w val="0.36461282653804428"/>
+          <c:w val="0.36461282653804433"/>
           <c:h val="8.9516754360555423E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4875,7 +5767,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4893,7 +5785,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041367"/>
+          <c:x val="0.15040891429041373"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.63158640815712053"/>
@@ -5229,11 +6121,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="114141440"/>
-        <c:axId val="114147712"/>
+        <c:axId val="79058816"/>
+        <c:axId val="79209984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114141440"/>
+        <c:axId val="79058816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5273,13 +6165,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114147712"/>
+        <c:crossAx val="79209984"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114147712"/>
+        <c:axId val="79209984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -5312,7 +6204,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114141440"/>
+        <c:crossAx val="79058816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5350,7 +6242,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5367,7 +6259,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041375"/>
+          <c:x val="0.15040891429041378"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.63158640815712053"/>
@@ -5798,11 +6690,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="114327552"/>
-        <c:axId val="114329472"/>
+        <c:axId val="79336576"/>
+        <c:axId val="79338496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114327552"/>
+        <c:axId val="79336576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5842,13 +6734,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114329472"/>
+        <c:crossAx val="79338496"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114329472"/>
+        <c:axId val="79338496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -5882,7 +6774,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114327552"/>
+        <c:crossAx val="79336576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5920,7 +6812,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5938,7 +6830,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041381"/>
+          <c:x val="0.15040891429041384"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.68838320636384265"/>
@@ -6659,11 +7551,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="103928960"/>
-        <c:axId val="103930880"/>
+        <c:axId val="79379840"/>
+        <c:axId val="79386112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103928960"/>
+        <c:axId val="79379840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.03"/>
@@ -6709,17 +7601,17 @@
             <a:prstDash val="dash"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="103930880"/>
+        <c:crossAx val="79386112"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
-        <c:minorUnit val="1.5000000000000003E-2"/>
+        <c:minorUnit val="1.5000000000000005E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103930880"/>
+        <c:axId val="79386112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.0000000000000004E-2"/>
+          <c:max val="2.0000000000000007E-2"/>
           <c:min val="-0.1"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -6750,14 +7642,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6274884699464785E-2"/>
+              <c:x val="1.6274884699464788E-2"/>
               <c:y val="0.26279594705904835"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103928960"/>
+        <c:crossAx val="79379840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6795,7 +7687,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -7506,6 +8398,232 @@
               <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18277</cdr:x>
+      <cdr:y>0.49181</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27676</cdr:x>
+      <cdr:y>0.59637</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="666760" y="1209674"/>
+          <a:ext cx="342883" cy="257181"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7363</cdr:x>
+      <cdr:y>0.38725</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83029</cdr:x>
+      <cdr:y>0.49181</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2686066" y="952499"/>
+          <a:ext cx="342883" cy="257181"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -12322,7 +13440,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12686,8 +13804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13548,4 +14666,1082 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F4">
+        <f>$B$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <f>$B$2*(-$B$3-$B$4-$B$5)</f>
+        <v>-0.22520000000000001</v>
+      </c>
+      <c r="H4">
+        <f>$B$2*(-$B$3*-$B$4-$B$4*-$B$5-$B$3*-$B$5)</f>
+        <v>0.41359999999999986</v>
+      </c>
+      <c r="I4">
+        <f>$B$2*-$B$3*-$B$4*-$B$5</f>
+        <v>1.8079999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <f>F4*3</f>
+        <v>0.03</v>
+      </c>
+      <c r="H5">
+        <f>G4*2</f>
+        <v>-0.45040000000000002</v>
+      </c>
+      <c r="I5">
+        <f>H4</f>
+        <v>0.41359999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>$B$2*($A7-$B$3)*($A7-$B$4)*($A7-$B$5)</f>
+        <v>1.8079999999999998</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f>$B$2*($D7-$B$3)*($D7-$B$4)*($D7-$B$5)</f>
+        <v>1.2919999999999998</v>
+      </c>
+      <c r="F7">
+        <f>D7</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <f>A7+$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C47" si="0">$B$2*($A8-$B$3)*($A8-$B$4)*($A8-$B$5)</f>
+        <v>2.0063999999999997</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f>$B$2*($D8-$B$3)*($D8-$B$4)*($D8-$B$5)</f>
+        <v>-1.6576000000000004</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F17" si="1">D8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <f t="shared" ref="A9:A47" si="2">A8+$B$1</f>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.8143999999999998</v>
+      </c>
+      <c r="D9">
+        <f>$D$7-((D8-$D$7)/(E8-$E$7))*$E$7</f>
+        <v>4.3140764849471109</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E47" si="3">$B$2*($D9-$B$3)*($D9-$B$4)*($D9-$B$5)</f>
+        <v>0.20395101655709288</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.3140764849471109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>$B$2*($A10-$B$3)*($A10-$B$4)*($A10-$B$5)</f>
+        <v>1.2919999999999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D47" si="4">$D$7-((D9-$D$7)/(E9-$E$7))*$E$7</f>
+        <v>4.560395574452329</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>-4.0916642034676522E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4.560395574452329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.49919999999999959</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>4.5124959945844543</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>7.5687130396594826E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4.5124959945844543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.50400000000000045</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>4.5214086147244821</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>-1.4218869629232301E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>4.5214086147244821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-1.6576000000000004</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>4.5197360969664633</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>2.6635003577717782E-4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4.5197360969664633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-2.9016000000000006</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>4.5200494601461019</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>-4.9920146808277411E-5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>4.5200494601461019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-4.176000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>4.5199907309197593</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>9.3552379120825731E-6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>4.5199907309197593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-5.4208000000000007</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>4.5200017370945869</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>-1.7532428889352308E-6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4.5200017370945869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-6.5760000000000005</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>4.5199996744563355</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>3.2856990843102422E-7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4.5199996744563355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-7.5815999999999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>4.5200000610091848</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>-6.1576326978981198E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-8.377600000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>4.5199999885664477</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>1.1539838169636125E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-8.9039999999999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>4.5200000021427282</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>-2.1626474672153253E-9</v>
+      </c>
+      <c r="G20">
+        <f>F7</f>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>F10</f>
+        <v>4.560395574452329</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-9.1008000000000013</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>4.5199999995984372</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>4.0529526242470555E-10</v>
+      </c>
+      <c r="G21">
+        <f>G20</f>
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f>$F$4*$G21^3+$G$4*$G21^2+$H$4*$G21+$I$4</f>
+        <v>1.2919999999999994</v>
+      </c>
+      <c r="J21">
+        <f>J20</f>
+        <v>4.560395574452329</v>
+      </c>
+      <c r="K21">
+        <f>$F$4*$J21^3+$G$4*$J21^2+$H$4*$J21+$I$4</f>
+        <v>-4.0916642034678041E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-8.9080000000000013</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>4.5200000000752549</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>-7.5954931305030118E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-8.2655999999999992</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>4.5199999999858962</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>1.4234490194535653E-11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <f>$H$24-$K$24*$G$24</f>
+        <v>3.2947999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-7.1135999999999999</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>4.5200000000026428</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>-2.6677903406386468E-12</v>
+      </c>
+      <c r="G24">
+        <f>G21</f>
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f>H21</f>
+        <v>1.2919999999999994</v>
+      </c>
+      <c r="J24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24">
+        <f>$G$5*$G24^2+$H$5*$G24+$I$5</f>
+        <v>-0.66760000000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-5.3920000000000003</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>4.519999999999504</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>5.0021068886960696E-13</v>
+      </c>
+      <c r="G25">
+        <f>J21</f>
+        <v>4.560395574452329</v>
+      </c>
+      <c r="H25">
+        <f>K21</f>
+        <v>-4.0916642034678041E-2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-3.0407999999999999</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>4.5200000000000919</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>-9.3229232334125164E-14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999818</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>1.7928698525793123E-14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3.7904000000000004</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>4.5200000000000031</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>-3.5857397051586319E-15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>8.3903999999999996</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999987</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>8.9643492628965757E-16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>13.86</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>20.2592</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>27.648000000000003</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>36.086400000000005</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>45.634399999999999</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>56.351999999999997</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>68.299199999999999</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>81.536000000000001</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>96.122399999999999</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E38">
+        <f>$B$2*($D38-$B$3)*($D38-$B$4)*($D38-$B$5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>112.11840000000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>129.58400000000003</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>$B$2*($A41-$B$3)*($A41-$B$4)*($A41-$B$5)</f>
+        <v>148.57920000000001</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>169.16399999999999</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>191.39840000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>215.34240000000003</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>241.05600000000004</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>268.59920000000005</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>298.03200000000004</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/figs/xlsx/0000.xlsx
+++ b/src/figs/xlsx/0000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="6" sheetId="7" r:id="rId7"/>
     <sheet name="7" sheetId="8" r:id="rId8"/>
     <sheet name="8" sheetId="9" r:id="rId9"/>
+    <sheet name="9" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
   <si>
     <t>Mpa</t>
   </si>
@@ -275,6 +276,12 @@
   <si>
     <t>xn+1</t>
   </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
 </sst>
 </file>
 
@@ -387,7 +394,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236115"/>
+          <c:x val="0.36134811309236126"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -1697,11 +1704,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78461568"/>
-        <c:axId val="78472320"/>
+        <c:axId val="125594624"/>
+        <c:axId val="125605376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78461568"/>
+        <c:axId val="125594624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1737,13 +1744,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78472320"/>
+        <c:crossAx val="125605376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78472320"/>
+        <c:axId val="125605376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1782,14 +1789,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776956"/>
+              <c:y val="0.41705721784776961"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78461568"/>
-        <c:crossesAt val="1.0000000000000026E-4"/>
+        <c:crossAx val="125594624"/>
+        <c:crossesAt val="1.0000000000000029E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1813,7 +1820,7 @@
           <c:x val="0.73873283123296651"/>
           <c:y val="7.7261242344706924E-2"/>
           <c:w val="0.19275132110941579"/>
-          <c:h val="0.27214418197725376"/>
+          <c:h val="0.27214418197725387"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1839,7 +1846,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1857,7 +1864,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041389"/>
+          <c:x val="0.15040891429041392"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.68838320636384265"/>
@@ -2592,11 +2599,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="138718208"/>
-        <c:axId val="128009344"/>
+        <c:axId val="129218816"/>
+        <c:axId val="129225088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138718208"/>
+        <c:axId val="129218816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2642,14 +2649,14 @@
             <a:prstDash val="dash"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="128009344"/>
+        <c:crossAx val="129225088"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128009344"/>
+        <c:axId val="129225088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -2683,14 +2690,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6274884699464798E-2"/>
+              <c:x val="1.6274884699464805E-2"/>
               <c:y val="0.26279594705904835"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138718208"/>
+        <c:crossAx val="129218816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2730,7 +2737,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2747,7 +2754,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36134811309236137"/>
+          <c:x val="0.36134811309236142"/>
           <c:y val="5.0322309711286102E-2"/>
           <c:w val="0.59123028704058445"/>
           <c:h val="0.78522589676290466"/>
@@ -4057,11 +4064,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="91349376"/>
-        <c:axId val="78587392"/>
+        <c:axId val="125124608"/>
+        <c:axId val="125126528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91349376"/>
+        <c:axId val="125124608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4096,13 +4103,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78587392"/>
+        <c:crossAx val="125126528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78587392"/>
+        <c:axId val="125126528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4139,14 +4146,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0631787140351533E-2"/>
-              <c:y val="0.41705721784776967"/>
+              <c:y val="0.41705721784776972"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91349376"/>
-        <c:crossesAt val="1.0000000000000032E-4"/>
+        <c:crossAx val="125124608"/>
+        <c:crossesAt val="1.0000000000000036E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4167,8 +4174,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73136634659194122"/>
-          <c:y val="7.2816797900262728E-2"/>
+          <c:x val="0.73136634659194111"/>
+          <c:y val="7.2816797900262756E-2"/>
           <c:w val="0.20762436960727645"/>
           <c:h val="0.3210330708661418"/>
         </c:manualLayout>
@@ -4196,7 +4203,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4214,10 +4221,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15007020816612829"/>
-          <c:y val="5.391676040494945E-2"/>
+          <c:x val="0.15007020816612832"/>
+          <c:y val="5.3916760404949464E-2"/>
           <c:w val="0.78932373122781141"/>
-          <c:h val="0.7393406016555637"/>
+          <c:h val="0.73934060165556381"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4392,11 +4399,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="91341184"/>
-        <c:axId val="78745984"/>
+        <c:axId val="125608320"/>
+        <c:axId val="125735680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91341184"/>
+        <c:axId val="125608320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4429,14 +4436,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78745984"/>
+        <c:crossAx val="125735680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78745984"/>
+        <c:axId val="125735680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,7 +4474,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91341184"/>
+        <c:crossAx val="125608320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4489,7 +4496,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67361510391110624"/>
+          <c:x val="0.67361510391110635"/>
           <c:y val="0.38856605424321988"/>
           <c:w val="0.23248820561452921"/>
           <c:h val="0.20064566929133859"/>
@@ -4518,7 +4525,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4535,8 +4542,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041364"/>
-          <c:y val="5.6140360786186852E-2"/>
+          <c:x val="0.15040891429041367"/>
+          <c:y val="5.6140360786186845E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
         </c:manualLayout>
@@ -4763,11 +4770,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="90731648"/>
-        <c:axId val="90733568"/>
+        <c:axId val="125797888"/>
+        <c:axId val="125799808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90731648"/>
+        <c:axId val="125797888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4807,13 +4814,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90733568"/>
+        <c:crossAx val="125799808"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90733568"/>
+        <c:axId val="125799808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4846,7 +4853,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90731648"/>
+        <c:crossAx val="125797888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4869,9 +4876,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17225413402959094"/>
-          <c:y val="0.10302858586191387"/>
-          <c:w val="0.19067014795474305"/>
-          <c:h val="0.19630870723258723"/>
+          <c:y val="0.10302858586191389"/>
+          <c:w val="0.19067014795474302"/>
+          <c:h val="0.1963087072325872"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -4897,7 +4904,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4915,7 +4922,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041373"/>
+          <c:x val="0.15040891429041375"/>
           <c:y val="5.6140360786186845E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
@@ -5253,11 +5260,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="79061760"/>
-        <c:axId val="79063680"/>
+        <c:axId val="126182528"/>
+        <c:axId val="126184448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79061760"/>
+        <c:axId val="126182528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5297,13 +5304,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79063680"/>
+        <c:crossAx val="126184448"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79063680"/>
+        <c:axId val="126184448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -5336,7 +5343,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79061760"/>
+        <c:crossAx val="126182528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5387,7 +5394,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5405,7 +5412,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041378"/>
+          <c:x val="0.15040891429041381"/>
           <c:y val="5.6140360786186845E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.72085707899873264"/>
@@ -5633,11 +5640,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="78994432"/>
-        <c:axId val="79000704"/>
+        <c:axId val="126229888"/>
+        <c:axId val="126117376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78994432"/>
+        <c:axId val="126229888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5677,13 +5684,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79000704"/>
+        <c:crossAx val="126117376"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79000704"/>
+        <c:axId val="126117376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -5716,7 +5723,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78994432"/>
+        <c:crossAx val="126229888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5740,7 +5747,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.16178516482504934"/>
           <c:y val="6.7163083199324833E-2"/>
-          <c:w val="0.36461282653804433"/>
+          <c:w val="0.36461282653804439"/>
           <c:h val="8.9516754360555423E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -5767,7 +5774,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5785,7 +5792,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041373"/>
+          <c:x val="0.15040891429041375"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.63158640815712053"/>
@@ -6121,11 +6128,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="79058816"/>
-        <c:axId val="79209984"/>
+        <c:axId val="126320640"/>
+        <c:axId val="126322560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79058816"/>
+        <c:axId val="126320640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6165,13 +6172,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79209984"/>
+        <c:crossAx val="126322560"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79209984"/>
+        <c:axId val="126322560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -6204,7 +6211,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79058816"/>
+        <c:crossAx val="126320640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6242,7 +6249,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6259,7 +6266,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041378"/>
+          <c:x val="0.15040891429041381"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.63158640815712053"/>
@@ -6690,11 +6697,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="79336576"/>
-        <c:axId val="79338496"/>
+        <c:axId val="126461440"/>
+        <c:axId val="126463360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79336576"/>
+        <c:axId val="126461440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6734,13 +6741,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79338496"/>
+        <c:crossAx val="126463360"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79338496"/>
+        <c:axId val="126463360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -6770,11 +6777,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79336576"/>
+        <c:crossAx val="126461440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6812,7 +6818,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -6830,7 +6836,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15040891429041384"/>
+          <c:x val="0.15040891429041386"/>
           <c:y val="8.5897077679974648E-2"/>
           <c:w val="0.77380344428225845"/>
           <c:h val="0.68838320636384265"/>
@@ -7551,11 +7557,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="79379840"/>
-        <c:axId val="79386112"/>
+        <c:axId val="129060864"/>
+        <c:axId val="129062784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79379840"/>
+        <c:axId val="129060864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.03"/>
@@ -7601,17 +7607,17 @@
             <a:prstDash val="dash"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79386112"/>
+        <c:crossAx val="129062784"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
-        <c:minorUnit val="1.5000000000000005E-2"/>
+        <c:minorUnit val="1.5000000000000006E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79386112"/>
+        <c:axId val="129062784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.0000000000000007E-2"/>
+          <c:max val="2.0000000000000011E-2"/>
           <c:min val="-0.1"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -7642,14 +7648,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6274884699464788E-2"/>
+              <c:x val="1.6274884699464792E-2"/>
               <c:y val="0.26279594705904835"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79379840"/>
+        <c:crossAx val="129060864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7687,7 +7693,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -11040,6 +11046,98 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <f>1*1*1*1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <f>-B1-B2-B3-B4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <f>-B1*-B2-B1*-B3-B1*-B4-B2*-B3-B2*-B4-B3*-B4</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <f>-B2*-B3*-B4-B1*-B3*-B4-B1*-B2*-B4-B1*-B2*-B3</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <f>-B1*-B2*-B3*-B4</f>
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O67"/>
@@ -14672,7 +14770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
